--- a/BackTest/2019-10-09 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-09 BackTest PIVX.xlsx
@@ -955,7 +955,9 @@
       <c r="J12" t="n">
         <v>186</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>6.521739130434782</v>
+      </c>
       <c r="L12" t="n">
         <v>895.9</v>
       </c>
@@ -1006,7 +1008,9 @@
       <c r="J13" t="n">
         <v>187</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>18.562874251497</v>
+      </c>
       <c r="L13" t="n">
         <v>897.2</v>
       </c>
@@ -1057,7 +1061,9 @@
       <c r="J14" t="n">
         <v>197</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>11.86440677966102</v>
+      </c>
       <c r="L14" t="n">
         <v>899.3</v>
       </c>
@@ -1108,7 +1114,9 @@
       <c r="J15" t="n">
         <v>206</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-3.311258278145695</v>
+      </c>
       <c r="L15" t="n">
         <v>902.3</v>
       </c>
@@ -1159,7 +1167,9 @@
       <c r="J16" t="n">
         <v>216</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-39.68253968253968</v>
+      </c>
       <c r="L16" t="n">
         <v>900.8</v>
       </c>
@@ -1204,7 +1214,9 @@
       <c r="J17" t="n">
         <v>221</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-20.83333333333334</v>
+      </c>
       <c r="L17" t="n">
         <v>895.3</v>
       </c>
@@ -1249,7 +1261,9 @@
       <c r="J18" t="n">
         <v>225</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>893.7</v>
       </c>
@@ -1294,7 +1308,9 @@
       <c r="J19" t="n">
         <v>228</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-62.66666666666667</v>
+      </c>
       <c r="L19" t="n">
         <v>890.5</v>
       </c>
@@ -1339,7 +1355,9 @@
       <c r="J20" t="n">
         <v>229</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-61.64383561643836</v>
+      </c>
       <c r="L20" t="n">
         <v>885.7</v>
       </c>
@@ -1384,7 +1402,9 @@
       <c r="J21" t="n">
         <v>262</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-63.1578947368421</v>
+      </c>
       <c r="L21" t="n">
         <v>877.9</v>
       </c>
@@ -1431,7 +1451,9 @@
       <c r="J22" t="n">
         <v>272</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-45.88235294117647</v>
+      </c>
       <c r="L22" t="n">
         <v>874.1</v>
       </c>
@@ -1479,7 +1501,7 @@
         <v>280</v>
       </c>
       <c r="K23" t="n">
-        <v>-12.23021582733813</v>
+        <v>-44.57831325301205</v>
       </c>
       <c r="L23" t="n">
         <v>869.4</v>
@@ -1528,7 +1550,7 @@
         <v>292</v>
       </c>
       <c r="K24" t="n">
-        <v>-1.470588235294118</v>
+        <v>-39.53488372093023</v>
       </c>
       <c r="L24" t="n">
         <v>866.9</v>
@@ -1577,7 +1599,7 @@
         <v>292</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.470588235294118</v>
+        <v>-31.57894736842105</v>
       </c>
       <c r="L25" t="n">
         <v>863.5</v>
@@ -1626,7 +1648,7 @@
         <v>304</v>
       </c>
       <c r="K26" t="n">
-        <v>-20.48192771084337</v>
+        <v>-37.34939759036144</v>
       </c>
       <c r="L26" t="n">
         <v>859.9</v>
@@ -1675,7 +1697,7 @@
         <v>311</v>
       </c>
       <c r="K27" t="n">
-        <v>-35.74660633484163</v>
+        <v>-32.55813953488372</v>
       </c>
       <c r="L27" t="n">
         <v>857.5</v>
@@ -1724,7 +1746,7 @@
         <v>329</v>
       </c>
       <c r="K28" t="n">
-        <v>-12.74509803921569</v>
+        <v>-6.930693069306932</v>
       </c>
       <c r="L28" t="n">
         <v>856.5</v>
@@ -1773,7 +1795,7 @@
         <v>340</v>
       </c>
       <c r="K29" t="n">
-        <v>-13.86138613861386</v>
+        <v>4.504504504504505</v>
       </c>
       <c r="L29" t="n">
         <v>856.9</v>
@@ -1822,7 +1844,7 @@
         <v>368</v>
       </c>
       <c r="K30" t="n">
-        <v>-33.02325581395349</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L30" t="n">
         <v>854.6</v>
@@ -1871,7 +1893,7 @@
         <v>396</v>
       </c>
       <c r="K31" t="n">
-        <v>-16.66666666666666</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L31" t="n">
         <v>858.4</v>
@@ -1922,7 +1944,7 @@
         <v>424</v>
       </c>
       <c r="K32" t="n">
-        <v>-15.96638655462185</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L32" t="n">
         <v>858.4</v>
@@ -1973,7 +1995,7 @@
         <v>431</v>
       </c>
       <c r="K33" t="n">
-        <v>-18.85245901639344</v>
+        <v>-7.913669064748201</v>
       </c>
       <c r="L33" t="n">
         <v>858.5</v>
@@ -2024,7 +2046,7 @@
         <v>437</v>
       </c>
       <c r="K34" t="n">
-        <v>-12.5</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L34" t="n">
         <v>858</v>
@@ -2075,7 +2097,7 @@
         <v>443</v>
       </c>
       <c r="K35" t="n">
-        <v>-18.9873417721519</v>
+        <v>0.7194244604316548</v>
       </c>
       <c r="L35" t="n">
         <v>856.9</v>
@@ -2126,7 +2148,7 @@
         <v>448</v>
       </c>
       <c r="K36" t="n">
-        <v>-17.24137931034483</v>
+        <v>-8.02919708029197</v>
       </c>
       <c r="L36" t="n">
         <v>856.5</v>
@@ -2177,7 +2199,7 @@
         <v>463</v>
       </c>
       <c r="K37" t="n">
-        <v>-8.264462809917356</v>
+        <v>-10.44776119402985</v>
       </c>
       <c r="L37" t="n">
         <v>856.9</v>
@@ -2228,7 +2250,7 @@
         <v>468</v>
       </c>
       <c r="K38" t="n">
-        <v>-11.93415637860082</v>
+        <v>-23.4375</v>
       </c>
       <c r="L38" t="n">
         <v>855</v>
@@ -2283,7 +2305,7 @@
         <v>498</v>
       </c>
       <c r="K39" t="n">
-        <v>1.481481481481482</v>
+        <v>21.53846153846154</v>
       </c>
       <c r="L39" t="n">
         <v>855</v>
@@ -2342,7 +2364,7 @@
         <v>523</v>
       </c>
       <c r="K40" t="n">
-        <v>-6.802721088435375</v>
+        <v>-19.68503937007874</v>
       </c>
       <c r="L40" t="n">
         <v>855.3</v>
@@ -2401,7 +2423,7 @@
         <v>523</v>
       </c>
       <c r="K41" t="n">
-        <v>4.980842911877394</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L41" t="n">
         <v>852.8</v>
@@ -2460,7 +2482,7 @@
         <v>524</v>
       </c>
       <c r="K42" t="n">
-        <v>0.7936507936507936</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L42" t="n">
         <v>853</v>
@@ -2519,7 +2541,7 @@
         <v>525</v>
       </c>
       <c r="K43" t="n">
-        <v>4.489795918367347</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L43" t="n">
         <v>854</v>
@@ -2576,7 +2598,7 @@
         <v>537</v>
       </c>
       <c r="K44" t="n">
-        <v>4.489795918367347</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L44" t="n">
         <v>855.6</v>
@@ -2635,7 +2657,7 @@
         <v>559</v>
       </c>
       <c r="K45" t="n">
-        <v>12.35955056179775</v>
+        <v>44.14414414414414</v>
       </c>
       <c r="L45" t="n">
         <v>860</v>
@@ -2698,7 +2720,7 @@
         <v>572</v>
       </c>
       <c r="K46" t="n">
-        <v>11.94029850746269</v>
+        <v>19.26605504587156</v>
       </c>
       <c r="L46" t="n">
         <v>863.6</v>
@@ -2755,7 +2777,7 @@
         <v>579</v>
       </c>
       <c r="K47" t="n">
-        <v>6.716417910447761</v>
+        <v>17.11711711711712</v>
       </c>
       <c r="L47" t="n">
         <v>865</v>
@@ -2816,7 +2838,7 @@
         <v>590</v>
       </c>
       <c r="K48" t="n">
-        <v>4.21455938697318</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>868</v>
@@ -2875,7 +2897,7 @@
         <v>596</v>
       </c>
       <c r="K49" t="n">
-        <v>-2.34375</v>
+        <v>26.02739726027397</v>
       </c>
       <c r="L49" t="n">
         <v>867.4</v>
@@ -2938,7 +2960,7 @@
         <v>612</v>
       </c>
       <c r="K50" t="n">
-        <v>15.57377049180328</v>
+        <v>39.32584269662922</v>
       </c>
       <c r="L50" t="n">
         <v>870.9</v>
@@ -3001,7 +3023,7 @@
         <v>613</v>
       </c>
       <c r="K51" t="n">
-        <v>5.069124423963133</v>
+        <v>41.57303370786517</v>
       </c>
       <c r="L51" t="n">
         <v>874.5</v>
@@ -3060,7 +3082,7 @@
         <v>614</v>
       </c>
       <c r="K52" t="n">
-        <v>20</v>
+        <v>39.32584269662922</v>
       </c>
       <c r="L52" t="n">
         <v>878.1</v>
@@ -3119,7 +3141,7 @@
         <v>624</v>
       </c>
       <c r="K53" t="n">
-        <v>28.49740932642487</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L53" t="n">
         <v>882.6</v>
@@ -3178,7 +3200,7 @@
         <v>644</v>
       </c>
       <c r="K54" t="n">
-        <v>33.33333333333333</v>
+        <v>36.47058823529412</v>
       </c>
       <c r="L54" t="n">
         <v>887.9</v>
@@ -3237,7 +3259,7 @@
         <v>653</v>
       </c>
       <c r="K55" t="n">
-        <v>40</v>
+        <v>65.4320987654321</v>
       </c>
       <c r="L55" t="n">
         <v>891.9</v>
@@ -3296,7 +3318,7 @@
         <v>692</v>
       </c>
       <c r="K56" t="n">
-        <v>52.45901639344262</v>
+        <v>87.61061946902655</v>
       </c>
       <c r="L56" t="n">
         <v>901.1</v>
@@ -3355,7 +3377,7 @@
         <v>717</v>
       </c>
       <c r="K57" t="n">
-        <v>54.33070866141733</v>
+        <v>88.9763779527559</v>
       </c>
       <c r="L57" t="n">
         <v>913.5</v>
@@ -3414,7 +3436,7 @@
         <v>720</v>
       </c>
       <c r="K58" t="n">
-        <v>55.55555555555556</v>
+        <v>93.54838709677419</v>
       </c>
       <c r="L58" t="n">
         <v>924.5</v>
@@ -3471,7 +3493,7 @@
         <v>807</v>
       </c>
       <c r="K59" t="n">
-        <v>7.443365695792881</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L59" t="n">
         <v>927.4</v>
@@ -3532,7 +3554,7 @@
         <v>840</v>
       </c>
       <c r="K60" t="n">
-        <v>25.55205047318612</v>
+        <v>19.82378854625551</v>
       </c>
       <c r="L60" t="n">
         <v>932</v>
@@ -3591,7 +3613,7 @@
         <v>879</v>
       </c>
       <c r="K61" t="n">
-        <v>33.70786516853933</v>
+        <v>32.0754716981132</v>
       </c>
       <c r="L61" t="n">
         <v>940.4</v>
@@ -3654,7 +3676,7 @@
         <v>917</v>
       </c>
       <c r="K62" t="n">
-        <v>21.11959287531807</v>
+        <v>12.62798634812287</v>
       </c>
       <c r="L62" t="n">
         <v>945.1</v>
@@ -3717,7 +3739,7 @@
         <v>917</v>
       </c>
       <c r="K63" t="n">
-        <v>20.91836734693878</v>
+        <v>6.227106227106227</v>
       </c>
       <c r="L63" t="n">
         <v>948.8</v>
@@ -3780,7 +3802,7 @@
         <v>921</v>
       </c>
       <c r="K64" t="n">
-        <v>19.27083333333334</v>
+        <v>4.477611940298507</v>
       </c>
       <c r="L64" t="n">
         <v>950.9</v>
@@ -3843,7 +3865,7 @@
         <v>966</v>
       </c>
       <c r="K65" t="n">
-        <v>23.83292383292383</v>
+        <v>6.569343065693431</v>
       </c>
       <c r="L65" t="n">
         <v>956.6</v>
@@ -3906,7 +3928,7 @@
         <v>967</v>
       </c>
       <c r="K66" t="n">
-        <v>28.10126582278481</v>
+        <v>-2.4</v>
       </c>
       <c r="L66" t="n">
         <v>958.5</v>
@@ -3969,7 +3991,7 @@
         <v>968</v>
       </c>
       <c r="K67" t="n">
-        <v>30.07712082262211</v>
+        <v>-1.612903225806452</v>
       </c>
       <c r="L67" t="n">
         <v>957.8</v>
@@ -4030,7 +4052,7 @@
         <v>1008</v>
       </c>
       <c r="K68" t="n">
-        <v>15.78947368421053</v>
+        <v>21.39303482587065</v>
       </c>
       <c r="L68" t="n">
         <v>953.4</v>
@@ -4091,7 +4113,7 @@
         <v>1120</v>
       </c>
       <c r="K69" t="n">
-        <v>35.11450381679389</v>
+        <v>43.57142857142857</v>
       </c>
       <c r="L69" t="n">
         <v>968.9</v>
@@ -4152,7 +4174,7 @@
         <v>1120</v>
       </c>
       <c r="K70" t="n">
-        <v>33.07086614173229</v>
+        <v>34.43983402489626</v>
       </c>
       <c r="L70" t="n">
         <v>981.1</v>
@@ -4203,7 +4225,7 @@
         <v>1148</v>
       </c>
       <c r="K71" t="n">
-        <v>25.98130841121495</v>
+        <v>40.25974025974026</v>
       </c>
       <c r="L71" t="n">
         <v>986.6</v>
@@ -4254,7 +4276,7 @@
         <v>1171</v>
       </c>
       <c r="K72" t="n">
-        <v>21.00538599640934</v>
+        <v>27.55905511811024</v>
       </c>
       <c r="L72" t="n">
         <v>993.6</v>
@@ -4305,7 +4327,7 @@
         <v>1174</v>
       </c>
       <c r="K73" t="n">
-        <v>18.90909090909091</v>
+        <v>24.90118577075099</v>
       </c>
       <c r="L73" t="n">
         <v>1000.3</v>
@@ -4356,7 +4378,7 @@
         <v>1174</v>
       </c>
       <c r="K74" t="n">
-        <v>15.84905660377358</v>
+        <v>8.653846153846153</v>
       </c>
       <c r="L74" t="n">
         <v>1006.6</v>
@@ -4407,7 +4429,7 @@
         <v>1199</v>
       </c>
       <c r="K75" t="n">
-        <v>9.157509157509157</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L75" t="n">
         <v>1005.9</v>
@@ -4458,7 +4480,7 @@
         <v>1224</v>
       </c>
       <c r="K76" t="n">
-        <v>6.766917293233083</v>
+        <v>7.03125</v>
       </c>
       <c r="L76" t="n">
         <v>1007.6</v>
@@ -4509,7 +4531,7 @@
         <v>1242</v>
       </c>
       <c r="K77" t="n">
-        <v>-1.333333333333333</v>
+        <v>17.09401709401709</v>
       </c>
       <c r="L77" t="n">
         <v>1007.6</v>
@@ -4560,7 +4582,7 @@
         <v>1243</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.5736137667304015</v>
+        <v>-57.72357723577236</v>
       </c>
       <c r="L78" t="n">
         <v>1011.7</v>
@@ -4611,7 +4633,7 @@
         <v>1273</v>
       </c>
       <c r="K79" t="n">
-        <v>11.58798283261802</v>
+        <v>-66.01307189542483</v>
       </c>
       <c r="L79" t="n">
         <v>1001.6</v>
@@ -4662,7 +4684,7 @@
         <v>1277</v>
       </c>
       <c r="K80" t="n">
-        <v>5.720823798627003</v>
+        <v>-53.48837209302325</v>
       </c>
       <c r="L80" t="n">
         <v>991.9</v>
@@ -4713,7 +4735,7 @@
         <v>1298</v>
       </c>
       <c r="K81" t="n">
-        <v>1.670644391408115</v>
+        <v>-19.68503937007874</v>
       </c>
       <c r="L81" t="n">
         <v>987.1</v>
@@ -4764,7 +4786,7 @@
         <v>1303</v>
       </c>
       <c r="K82" t="n">
-        <v>12.95336787564767</v>
+        <v>-13.17829457364341</v>
       </c>
       <c r="L82" t="n">
         <v>985.1</v>
@@ -4815,7 +4837,7 @@
         <v>1345</v>
       </c>
       <c r="K83" t="n">
-        <v>21.49532710280374</v>
+        <v>14.61988304093567</v>
       </c>
       <c r="L83" t="n">
         <v>987.6</v>
@@ -4866,7 +4888,7 @@
         <v>1377</v>
       </c>
       <c r="K84" t="n">
-        <v>12.28070175438596</v>
+        <v>10.1123595505618</v>
       </c>
       <c r="L84" t="n">
         <v>986.9</v>
@@ -4917,7 +4939,7 @@
         <v>1394</v>
       </c>
       <c r="K85" t="n">
-        <v>6.542056074766355</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L85" t="n">
         <v>990.4</v>
@@ -4968,7 +4990,7 @@
         <v>1397</v>
       </c>
       <c r="K86" t="n">
-        <v>5.581395348837209</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L86" t="n">
         <v>991.1</v>
@@ -5019,7 +5041,7 @@
         <v>1409</v>
       </c>
       <c r="K87" t="n">
-        <v>2.947845804988662</v>
+        <v>7.228915662650602</v>
       </c>
       <c r="L87" t="n">
         <v>992.4</v>
@@ -5070,7 +5092,7 @@
         <v>1410</v>
       </c>
       <c r="K88" t="n">
-        <v>13.43283582089552</v>
+        <v>31.38686131386861</v>
       </c>
       <c r="L88" t="n">
         <v>993.7</v>
@@ -5121,7 +5143,7 @@
         <v>1414</v>
       </c>
       <c r="K89" t="n">
-        <v>-18.36734693877551</v>
+        <v>31.38686131386861</v>
       </c>
       <c r="L89" t="n">
         <v>998.4</v>
@@ -5172,7 +5194,7 @@
         <v>1450</v>
       </c>
       <c r="K90" t="n">
-        <v>-27.27272727272727</v>
+        <v>-9.210526315789473</v>
       </c>
       <c r="L90" t="n">
         <v>999.1</v>
@@ -5223,7 +5245,7 @@
         <v>1450</v>
       </c>
       <c r="K91" t="n">
-        <v>-20.52980132450331</v>
+        <v>-12.92517006802721</v>
       </c>
       <c r="L91" t="n">
         <v>997.7</v>
@@ -5274,7 +5296,7 @@
         <v>1469</v>
       </c>
       <c r="K92" t="n">
-        <v>-6.711409395973154</v>
+        <v>-33.87096774193548</v>
       </c>
       <c r="L92" t="n">
         <v>997.7</v>
@@ -5325,7 +5347,7 @@
         <v>1476</v>
       </c>
       <c r="K93" t="n">
-        <v>-7.947019867549669</v>
+        <v>-17.17171717171717</v>
       </c>
       <c r="L93" t="n">
         <v>992.8</v>
@@ -5376,7 +5398,7 @@
         <v>1500</v>
       </c>
       <c r="K94" t="n">
-        <v>-14.7239263803681</v>
+        <v>-54.71698113207547</v>
       </c>
       <c r="L94" t="n">
         <v>988.7</v>
@@ -5427,7 +5449,7 @@
         <v>1501</v>
       </c>
       <c r="K95" t="n">
-        <v>-7.947019867549669</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L95" t="n">
         <v>982.8</v>
@@ -5478,7 +5500,7 @@
         <v>1515</v>
       </c>
       <c r="K96" t="n">
-        <v>-21.64948453608248</v>
+        <v>-54.71698113207547</v>
       </c>
       <c r="L96" t="n">
         <v>975.8</v>
@@ -5529,7 +5551,7 @@
         <v>1560</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-9.333333333333334</v>
       </c>
       <c r="L97" t="n">
         <v>974.5</v>
@@ -5580,7 +5602,7 @@
         <v>1577</v>
       </c>
       <c r="K98" t="n">
-        <v>-5.389221556886228</v>
+        <v>-21.47239263803681</v>
       </c>
       <c r="L98" t="n">
         <v>971.4</v>
@@ -5631,7 +5653,7 @@
         <v>1586</v>
       </c>
       <c r="K99" t="n">
-        <v>0.9584664536741214</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L99" t="n">
         <v>967</v>
@@ -5682,7 +5704,7 @@
         <v>1614</v>
       </c>
       <c r="K100" t="n">
-        <v>8.011869436201781</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L100" t="n">
         <v>969</v>
@@ -5733,7 +5755,7 @@
         <v>1636</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.733727810650888</v>
+        <v>-12.5748502994012</v>
       </c>
       <c r="L101" t="n">
         <v>968.8</v>
@@ -5784,7 +5806,7 @@
         <v>1638</v>
       </c>
       <c r="K102" t="n">
-        <v>-5.671641791044777</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L102" t="n">
         <v>966.9</v>
@@ -5835,7 +5857,7 @@
         <v>1638</v>
       </c>
       <c r="K103" t="n">
-        <v>-20.81911262798635</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L103" t="n">
         <v>965.7</v>
@@ -5886,7 +5908,7 @@
         <v>1650</v>
       </c>
       <c r="K104" t="n">
-        <v>-6.227106227106227</v>
+        <v>16.77852348993289</v>
       </c>
       <c r="L104" t="n">
         <v>968.1</v>
@@ -5937,7 +5959,7 @@
         <v>1652</v>
       </c>
       <c r="K105" t="n">
-        <v>-13.95348837209302</v>
+        <v>27.00729927007299</v>
       </c>
       <c r="L105" t="n">
         <v>970.4</v>
@@ -5988,7 +6010,7 @@
         <v>1653</v>
       </c>
       <c r="K106" t="n">
-        <v>-13.28125</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L106" t="n">
         <v>974</v>
@@ -6039,7 +6061,7 @@
         <v>1664</v>
       </c>
       <c r="K107" t="n">
-        <v>-12.94117647058824</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L107" t="n">
         <v>972</v>
@@ -6090,7 +6112,7 @@
         <v>1667</v>
       </c>
       <c r="K108" t="n">
-        <v>-12.06225680933852</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L108" t="n">
         <v>972</v>
@@ -6141,7 +6163,7 @@
         <v>1676</v>
       </c>
       <c r="K109" t="n">
-        <v>-16.79389312977099</v>
+        <v>-45.16129032258064</v>
       </c>
       <c r="L109" t="n">
         <v>972</v>
@@ -6192,7 +6214,7 @@
         <v>1676</v>
       </c>
       <c r="K110" t="n">
-        <v>-3.539823008849558</v>
+        <v>-15</v>
       </c>
       <c r="L110" t="n">
         <v>969.2</v>
@@ -6243,7 +6265,7 @@
         <v>1689</v>
       </c>
       <c r="K111" t="n">
-        <v>-8.786610878661087</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L111" t="n">
         <v>967.3</v>
@@ -6294,7 +6316,7 @@
         <v>1689</v>
       </c>
       <c r="K112" t="n">
-        <v>-18.18181818181818</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L112" t="n">
         <v>965.2</v>
@@ -6345,7 +6367,7 @@
         <v>1700</v>
       </c>
       <c r="K113" t="n">
-        <v>-9.821428571428571</v>
+        <v>-44</v>
       </c>
       <c r="L113" t="n">
         <v>964.2</v>
@@ -6396,7 +6418,7 @@
         <v>1700</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L114" t="n">
         <v>962</v>
@@ -6447,7 +6469,7 @@
         <v>1700</v>
       </c>
       <c r="K115" t="n">
-        <v>1.507537688442211</v>
+        <v>-40.42553191489361</v>
       </c>
       <c r="L115" t="n">
         <v>960</v>
@@ -6498,7 +6520,7 @@
         <v>1701</v>
       </c>
       <c r="K116" t="n">
-        <v>8.60215053763441</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L116" t="n">
         <v>958</v>
@@ -6549,7 +6571,7 @@
         <v>1701</v>
       </c>
       <c r="K117" t="n">
-        <v>-20.56737588652482</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L117" t="n">
         <v>957.1</v>
@@ -6600,7 +6622,7 @@
         <v>1702</v>
       </c>
       <c r="K118" t="n">
-        <v>-10.4</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L118" t="n">
         <v>955.8</v>
@@ -6702,7 +6724,7 @@
         <v>1710</v>
       </c>
       <c r="K120" t="n">
-        <v>-33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L120" t="n">
         <v>955.4</v>
@@ -6753,7 +6775,7 @@
         <v>1725</v>
       </c>
       <c r="K121" t="n">
-        <v>-28.08988764044944</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L121" t="n">
         <v>954.8</v>
@@ -6804,7 +6826,7 @@
         <v>1727</v>
       </c>
       <c r="K122" t="n">
-        <v>-28.08988764044944</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L122" t="n">
         <v>954.4</v>
@@ -6855,7 +6877,7 @@
         <v>1727</v>
       </c>
       <c r="K123" t="n">
-        <v>-28.08988764044944</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L123" t="n">
         <v>952.9</v>
@@ -6906,7 +6928,7 @@
         <v>1740</v>
       </c>
       <c r="K124" t="n">
-        <v>-55.55555555555556</v>
+        <v>-70</v>
       </c>
       <c r="L124" t="n">
         <v>950.1</v>
@@ -6957,7 +6979,7 @@
         <v>1740</v>
       </c>
       <c r="K125" t="n">
-        <v>-54.54545454545454</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L125" t="n">
         <v>947.3</v>
@@ -7008,7 +7030,7 @@
         <v>1740</v>
       </c>
       <c r="K126" t="n">
-        <v>-54.02298850574713</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L126" t="n">
         <v>944.6</v>
@@ -7059,7 +7081,7 @@
         <v>1754</v>
       </c>
       <c r="K127" t="n">
-        <v>-55.55555555555556</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="L127" t="n">
         <v>940.5</v>
@@ -7110,7 +7132,7 @@
         <v>1777</v>
       </c>
       <c r="K128" t="n">
-        <v>-27.27272727272727</v>
+        <v>-29.57746478873239</v>
       </c>
       <c r="L128" t="n">
         <v>938.8</v>
@@ -7161,7 +7183,7 @@
         <v>1796</v>
       </c>
       <c r="K129" t="n">
-        <v>-33.33333333333333</v>
+        <v>-41.86046511627907</v>
       </c>
       <c r="L129" t="n">
         <v>934.8</v>
@@ -7212,7 +7234,7 @@
         <v>1797</v>
       </c>
       <c r="K130" t="n">
-        <v>-32.23140495867769</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L130" t="n">
         <v>931.3</v>
@@ -7263,7 +7285,7 @@
         <v>1798</v>
       </c>
       <c r="K131" t="n">
-        <v>-24.77064220183486</v>
+        <v>-32.3943661971831</v>
       </c>
       <c r="L131" t="n">
         <v>929.2</v>
@@ -7314,7 +7336,7 @@
         <v>1802</v>
       </c>
       <c r="K132" t="n">
-        <v>-27.43362831858407</v>
+        <v>-36</v>
       </c>
       <c r="L132" t="n">
         <v>926.5</v>
@@ -7365,7 +7387,7 @@
         <v>1802</v>
       </c>
       <c r="K133" t="n">
-        <v>-41.17647058823529</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L133" t="n">
         <v>923.8</v>
@@ -7416,7 +7438,7 @@
         <v>1803</v>
       </c>
       <c r="K134" t="n">
-        <v>-41.74757281553398</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L134" t="n">
         <v>922.3</v>
@@ -7467,7 +7489,7 @@
         <v>1804</v>
       </c>
       <c r="K135" t="n">
-        <v>-42.30769230769231</v>
+        <v>-25</v>
       </c>
       <c r="L135" t="n">
         <v>920.7</v>
@@ -7518,7 +7540,7 @@
         <v>1821</v>
       </c>
       <c r="K136" t="n">
-        <v>-50</v>
+        <v>-28.35820895522388</v>
       </c>
       <c r="L136" t="n">
         <v>917.4</v>
@@ -7569,7 +7591,7 @@
         <v>1831</v>
       </c>
       <c r="K137" t="n">
-        <v>-38.46153846153847</v>
+        <v>-59.25925925925925</v>
       </c>
       <c r="L137" t="n">
         <v>916.5</v>
@@ -7620,7 +7642,7 @@
         <v>1848</v>
       </c>
       <c r="K138" t="n">
-        <v>-21.91780821917808</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L138" t="n">
         <v>915</v>
@@ -7671,7 +7693,7 @@
         <v>1871</v>
       </c>
       <c r="K139" t="n">
-        <v>-35.75757575757576</v>
+        <v>-27.02702702702703</v>
       </c>
       <c r="L139" t="n">
         <v>913.1</v>
@@ -7722,7 +7744,7 @@
         <v>1901</v>
       </c>
       <c r="K140" t="n">
-        <v>-13.08900523560209</v>
+        <v>10.67961165048544</v>
       </c>
       <c r="L140" t="n">
         <v>914.1</v>
@@ -7773,7 +7795,7 @@
         <v>1940</v>
       </c>
       <c r="K141" t="n">
-        <v>-22.79069767441861</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L141" t="n">
         <v>911.3</v>
@@ -7824,7 +7846,7 @@
         <v>1985</v>
       </c>
       <c r="K142" t="n">
-        <v>-2.325581395348837</v>
+        <v>11.47540983606557</v>
       </c>
       <c r="L142" t="n">
         <v>913.4</v>
@@ -7875,7 +7897,7 @@
         <v>1987</v>
       </c>
       <c r="K143" t="n">
-        <v>-3.076923076923077</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="L143" t="n">
         <v>915.3</v>
@@ -7926,7 +7948,7 @@
         <v>1988</v>
       </c>
       <c r="K144" t="n">
-        <v>2.419354838709677</v>
+        <v>11.95652173913044</v>
       </c>
       <c r="L144" t="n">
         <v>917.4</v>
@@ -7977,7 +7999,7 @@
         <v>2021</v>
       </c>
       <c r="K145" t="n">
-        <v>-9.608540925266903</v>
+        <v>3</v>
       </c>
       <c r="L145" t="n">
         <v>916.3</v>
@@ -8028,7 +8050,7 @@
         <v>2024</v>
       </c>
       <c r="K146" t="n">
-        <v>-10.56338028169014</v>
+        <v>-3.626943005181347</v>
       </c>
       <c r="L146" t="n">
         <v>916.6</v>
@@ -8079,7 +8101,7 @@
         <v>2036</v>
       </c>
       <c r="K147" t="n">
-        <v>-1.418439716312057</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L147" t="n">
         <v>917.1</v>
@@ -8130,7 +8152,7 @@
         <v>2039</v>
       </c>
       <c r="K148" t="n">
-        <v>-11.45038167938931</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L148" t="n">
         <v>915.6</v>
@@ -8181,7 +8203,7 @@
         <v>2049</v>
       </c>
       <c r="K149" t="n">
-        <v>-0.3952569169960474</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L149" t="n">
         <v>917.4</v>
@@ -8232,7 +8254,7 @@
         <v>2067</v>
       </c>
       <c r="K150" t="n">
-        <v>-7.407407407407407</v>
+        <v>7.086614173228346</v>
       </c>
       <c r="L150" t="n">
         <v>914.4</v>
@@ -8283,7 +8305,7 @@
         <v>2087</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3460207612456748</v>
+        <v>-15.68627450980392</v>
       </c>
       <c r="L151" t="n">
         <v>917.3</v>
@@ -8334,7 +8356,7 @@
         <v>2097</v>
       </c>
       <c r="K152" t="n">
-        <v>5.084745762711865</v>
+        <v>-3.636363636363636</v>
       </c>
       <c r="L152" t="n">
         <v>916.7</v>
@@ -8385,7 +8407,7 @@
         <v>2106</v>
       </c>
       <c r="K153" t="n">
-        <v>7.894736842105263</v>
+        <v>3.389830508474576</v>
       </c>
       <c r="L153" t="n">
         <v>917.2</v>
@@ -8436,7 +8458,7 @@
         <v>2131</v>
       </c>
       <c r="K154" t="n">
-        <v>15.24390243902439</v>
+        <v>56.36363636363636</v>
       </c>
       <c r="L154" t="n">
         <v>920.1</v>
@@ -8487,7 +8509,7 @@
         <v>2137</v>
       </c>
       <c r="K155" t="n">
-        <v>13.51351351351351</v>
+        <v>52.21238938053098</v>
       </c>
       <c r="L155" t="n">
         <v>925.7</v>
@@ -8538,7 +8560,7 @@
         <v>2137</v>
       </c>
       <c r="K156" t="n">
-        <v>19.62025316455696</v>
+        <v>46.53465346534654</v>
       </c>
       <c r="L156" t="n">
         <v>931.6</v>
@@ -8589,7 +8611,7 @@
         <v>2190</v>
       </c>
       <c r="K157" t="n">
-        <v>-0.2785515320334262</v>
+        <v>-1.986754966887417</v>
       </c>
       <c r="L157" t="n">
         <v>931</v>
@@ -8640,7 +8662,7 @@
         <v>2220</v>
       </c>
       <c r="K158" t="n">
-        <v>3.225806451612903</v>
+        <v>9.941520467836257</v>
       </c>
       <c r="L158" t="n">
         <v>933.7</v>
@@ -8691,7 +8713,7 @@
         <v>2238</v>
       </c>
       <c r="K159" t="n">
-        <v>14.44141689373297</v>
+        <v>30.99415204678363</v>
       </c>
       <c r="L159" t="n">
         <v>937.2</v>
@@ -8742,7 +8764,7 @@
         <v>2239</v>
       </c>
       <c r="K160" t="n">
-        <v>7.100591715976331</v>
+        <v>22.36842105263158</v>
       </c>
       <c r="L160" t="n">
         <v>942.6</v>
@@ -8793,7 +8815,7 @@
         <v>2239</v>
       </c>
       <c r="K161" t="n">
-        <v>21.07023411371237</v>
+        <v>16.90140845070422</v>
       </c>
       <c r="L161" t="n">
         <v>946</v>
@@ -8844,7 +8866,7 @@
         <v>2248</v>
       </c>
       <c r="K162" t="n">
-        <v>10.26615969581749</v>
+        <v>16.90140845070422</v>
       </c>
       <c r="L162" t="n">
         <v>949.3</v>
@@ -8895,7 +8917,7 @@
         <v>2252</v>
       </c>
       <c r="K163" t="n">
-        <v>9.433962264150944</v>
+        <v>-4.132231404958678</v>
       </c>
       <c r="L163" t="n">
         <v>951.3</v>
@@ -8946,7 +8968,7 @@
         <v>2258</v>
       </c>
       <c r="K164" t="n">
-        <v>11.11111111111111</v>
+        <v>5.785123966942149</v>
       </c>
       <c r="L164" t="n">
         <v>951.4</v>
@@ -8997,7 +9019,7 @@
         <v>2258</v>
       </c>
       <c r="K165" t="n">
-        <v>26.58227848101265</v>
+        <v>5.785123966942149</v>
       </c>
       <c r="L165" t="n">
         <v>952.1</v>
@@ -9048,7 +9070,7 @@
         <v>2289</v>
       </c>
       <c r="K166" t="n">
-        <v>13.20754716981132</v>
+        <v>29.29292929292929</v>
       </c>
       <c r="L166" t="n">
         <v>949.7</v>
@@ -9099,7 +9121,7 @@
         <v>2290</v>
       </c>
       <c r="K167" t="n">
-        <v>8.661417322834646</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L167" t="n">
         <v>952.5</v>
@@ -9150,7 +9172,7 @@
         <v>2294</v>
       </c>
       <c r="K168" t="n">
-        <v>8.235294117647058</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L168" t="n">
         <v>951.9</v>
@@ -9201,7 +9223,7 @@
         <v>2295</v>
       </c>
       <c r="K169" t="n">
-        <v>4.065040650406504</v>
+        <v>-46.42857142857143</v>
       </c>
       <c r="L169" t="n">
         <v>949.4</v>
@@ -9252,7 +9274,7 @@
         <v>2300</v>
       </c>
       <c r="K170" t="n">
-        <v>14.16309012875537</v>
+        <v>-34.42622950819672</v>
       </c>
       <c r="L170" t="n">
         <v>947.3</v>
@@ -9303,7 +9325,7 @@
         <v>2326</v>
       </c>
       <c r="K171" t="n">
-        <v>16.31799163179916</v>
+        <v>-5.128205128205128</v>
       </c>
       <c r="L171" t="n">
         <v>947.8</v>
@@ -9354,7 +9376,7 @@
         <v>2329</v>
       </c>
       <c r="K172" t="n">
-        <v>11.20689655172414</v>
+        <v>-3.896103896103896</v>
       </c>
       <c r="L172" t="n">
         <v>947.1</v>
@@ -9405,7 +9427,7 @@
         <v>2331</v>
       </c>
       <c r="K173" t="n">
-        <v>6.666666666666667</v>
+        <v>-15.06849315068493</v>
       </c>
       <c r="L173" t="n">
         <v>946.6</v>
@@ -9456,7 +9478,7 @@
         <v>2331</v>
       </c>
       <c r="K174" t="n">
-        <v>-5</v>
+        <v>-15.06849315068493</v>
       </c>
       <c r="L174" t="n">
         <v>945.5</v>
@@ -9507,7 +9529,7 @@
         <v>2332</v>
       </c>
       <c r="K175" t="n">
-        <v>-1.538461538461539</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L175" t="n">
         <v>944.5</v>
@@ -9558,7 +9580,7 @@
         <v>2336</v>
       </c>
       <c r="K176" t="n">
-        <v>-3.517587939698493</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L176" t="n">
         <v>946.2</v>
@@ -9609,7 +9631,7 @@
         <v>2341</v>
       </c>
       <c r="K177" t="n">
-        <v>33.77483443708609</v>
+        <v>57.44680851063831</v>
       </c>
       <c r="L177" t="n">
         <v>948.5</v>
@@ -9660,7 +9682,7 @@
         <v>2344</v>
       </c>
       <c r="K178" t="n">
-        <v>19.35483870967742</v>
+        <v>63.26530612244898</v>
       </c>
       <c r="L178" t="n">
         <v>951.5</v>
@@ -9711,7 +9733,7 @@
         <v>2347</v>
       </c>
       <c r="K179" t="n">
-        <v>8.256880733944955</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="L179" t="n">
         <v>954.9</v>
@@ -9762,7 +9784,7 @@
         <v>2347</v>
       </c>
       <c r="K180" t="n">
-        <v>7.407407407407407</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L180" t="n">
         <v>957.8</v>
@@ -9813,7 +9835,7 @@
         <v>2347</v>
       </c>
       <c r="K181" t="n">
-        <v>7.407407407407407</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L181" t="n">
         <v>958.1</v>
@@ -9864,7 +9886,7 @@
         <v>2354</v>
       </c>
       <c r="K182" t="n">
-        <v>-7.547169811320755</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L182" t="n">
         <v>958</v>
@@ -9915,7 +9937,7 @@
         <v>2361</v>
       </c>
       <c r="K183" t="n">
-        <v>2.752293577981652</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L183" t="n">
         <v>958.8</v>
@@ -9966,7 +9988,7 @@
         <v>2402</v>
       </c>
       <c r="K184" t="n">
-        <v>-30.55555555555556</v>
+        <v>-48.57142857142857</v>
       </c>
       <c r="L184" t="n">
         <v>955.5</v>
@@ -10017,7 +10039,7 @@
         <v>2429</v>
       </c>
       <c r="K185" t="n">
-        <v>-41.52046783625731</v>
+        <v>-61.29032258064516</v>
       </c>
       <c r="L185" t="n">
         <v>949.4</v>
@@ -10068,7 +10090,7 @@
         <v>2435</v>
       </c>
       <c r="K186" t="n">
-        <v>-23.28767123287671</v>
+        <v>-59.57446808510638</v>
       </c>
       <c r="L186" t="n">
         <v>944.3</v>
@@ -10119,7 +10141,7 @@
         <v>2436</v>
       </c>
       <c r="K187" t="n">
-        <v>-21.91780821917808</v>
+        <v>-63.04347826086957</v>
       </c>
       <c r="L187" t="n">
         <v>938.8</v>
@@ -10170,7 +10192,7 @@
         <v>2436</v>
       </c>
       <c r="K188" t="n">
-        <v>-19.71830985915493</v>
+        <v>-68.53932584269663</v>
       </c>
       <c r="L188" t="n">
         <v>933</v>
@@ -10221,7 +10243,7 @@
         <v>2443</v>
       </c>
       <c r="K189" t="n">
-        <v>-13.51351351351351</v>
+        <v>-56.25</v>
       </c>
       <c r="L189" t="n">
         <v>927.6</v>
@@ -10272,7 +10294,7 @@
         <v>2453</v>
       </c>
       <c r="K190" t="n">
-        <v>-9.803921568627452</v>
+        <v>-41.50943396226415</v>
       </c>
       <c r="L190" t="n">
         <v>923.2</v>
@@ -10323,7 +10345,7 @@
         <v>2457</v>
       </c>
       <c r="K191" t="n">
-        <v>-34.35114503816794</v>
+        <v>-39.80582524271845</v>
       </c>
       <c r="L191" t="n">
         <v>918.4</v>
@@ -10374,7 +10396,7 @@
         <v>2474</v>
       </c>
       <c r="K192" t="n">
-        <v>-17.24137931034483</v>
+        <v>-27.43362831858407</v>
       </c>
       <c r="L192" t="n">
         <v>916</v>
@@ -10425,7 +10447,7 @@
         <v>2496</v>
       </c>
       <c r="K193" t="n">
-        <v>-0.6060606060606061</v>
+        <v>34.04255319148936</v>
       </c>
       <c r="L193" t="n">
         <v>915.1</v>
@@ -10476,7 +10498,7 @@
         <v>2528</v>
       </c>
       <c r="K194" t="n">
-        <v>-16.751269035533</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L194" t="n">
         <v>915.1</v>
@@ -10527,7 +10549,7 @@
         <v>2558</v>
       </c>
       <c r="K195" t="n">
-        <v>-1.769911504424779</v>
+        <v>41.46341463414634</v>
       </c>
       <c r="L195" t="n">
         <v>920.8</v>
@@ -10578,7 +10600,7 @@
         <v>2590</v>
       </c>
       <c r="K196" t="n">
-        <v>-12.59842519685039</v>
+        <v>11.68831168831169</v>
       </c>
       <c r="L196" t="n">
         <v>922.7</v>
@@ -10629,7 +10651,7 @@
         <v>2592</v>
       </c>
       <c r="K197" t="n">
-        <v>-13.94422310756972</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L197" t="n">
         <v>924.7</v>
@@ -10680,7 +10702,7 @@
         <v>2599</v>
       </c>
       <c r="K198" t="n">
-        <v>-12.15686274509804</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L198" t="n">
         <v>927.4</v>
@@ -10731,7 +10753,7 @@
         <v>2609</v>
       </c>
       <c r="K199" t="n">
-        <v>-16.79389312977099</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>928.4</v>
@@ -10782,7 +10804,7 @@
         <v>2622</v>
       </c>
       <c r="K200" t="n">
-        <v>-11.27272727272727</v>
+        <v>10.3030303030303</v>
       </c>
       <c r="L200" t="n">
         <v>929.7</v>
@@ -10833,7 +10855,7 @@
         <v>2625</v>
       </c>
       <c r="K201" t="n">
-        <v>-12.23021582733813</v>
+        <v>-1.986754966887417</v>
       </c>
       <c r="L201" t="n">
         <v>931.1</v>
@@ -10884,7 +10906,7 @@
         <v>2644</v>
       </c>
       <c r="K202" t="n">
-        <v>-2.758620689655173</v>
+        <v>-4.054054054054054</v>
       </c>
       <c r="L202" t="n">
         <v>932.7</v>
@@ -10935,7 +10957,7 @@
         <v>2645</v>
       </c>
       <c r="K203" t="n">
-        <v>-4.929577464788732</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L203" t="n">
         <v>932.2</v>
@@ -10986,7 +11008,7 @@
         <v>2662</v>
       </c>
       <c r="K204" t="n">
-        <v>3.846153846153846</v>
+        <v>-19.23076923076923</v>
       </c>
       <c r="L204" t="n">
         <v>933.2</v>
@@ -11037,7 +11059,7 @@
         <v>2667</v>
       </c>
       <c r="K205" t="n">
-        <v>17.64705882352941</v>
+        <v>22.07792207792208</v>
       </c>
       <c r="L205" t="n">
         <v>931.7</v>
@@ -11088,7 +11110,7 @@
         <v>2676</v>
       </c>
       <c r="K206" t="n">
-        <v>18.67219917012448</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L206" t="n">
         <v>934.3</v>
@@ -11139,7 +11161,7 @@
         <v>2676</v>
       </c>
       <c r="K207" t="n">
-        <v>18.33333333333333</v>
+        <v>22.07792207792208</v>
       </c>
       <c r="L207" t="n">
         <v>936.7</v>
@@ -11190,7 +11212,7 @@
         <v>2676</v>
       </c>
       <c r="K208" t="n">
-        <v>18.33333333333333</v>
+        <v>40.29850746268657</v>
       </c>
       <c r="L208" t="n">
         <v>938.4</v>
@@ -11241,7 +11263,7 @@
         <v>2685</v>
       </c>
       <c r="K209" t="n">
-        <v>19.00826446280992</v>
+        <v>36.50793650793651</v>
       </c>
       <c r="L209" t="n">
         <v>942</v>
@@ -11292,7 +11314,7 @@
         <v>2693</v>
       </c>
       <c r="K210" t="n">
-        <v>18.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L210" t="n">
         <v>945.1</v>
@@ -11343,7 +11365,7 @@
         <v>2693</v>
       </c>
       <c r="K211" t="n">
-        <v>20.33898305084746</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L211" t="n">
         <v>948.5</v>
@@ -11394,7 +11416,7 @@
         <v>2693</v>
       </c>
       <c r="K212" t="n">
-        <v>14.15525114155251</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="L212" t="n">
         <v>950</v>
@@ -11445,7 +11467,7 @@
         <v>2693</v>
       </c>
       <c r="K213" t="n">
-        <v>4.568527918781726</v>
+        <v>100</v>
       </c>
       <c r="L213" t="n">
         <v>951.4</v>
@@ -11496,7 +11518,7 @@
         <v>2695</v>
       </c>
       <c r="K214" t="n">
-        <v>25.74850299401198</v>
+        <v>100</v>
       </c>
       <c r="L214" t="n">
         <v>954.7</v>
@@ -11547,7 +11569,7 @@
         <v>2697</v>
       </c>
       <c r="K215" t="n">
-        <v>7.913669064748201</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L215" t="n">
         <v>957.3</v>
@@ -11598,7 +11620,7 @@
         <v>2697</v>
       </c>
       <c r="K216" t="n">
-        <v>40.18691588785047</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L216" t="n">
         <v>959</v>
@@ -11649,7 +11671,7 @@
         <v>2708</v>
       </c>
       <c r="K217" t="n">
-        <v>25.86206896551724</v>
+        <v>18.75</v>
       </c>
       <c r="L217" t="n">
         <v>959.6</v>
@@ -11700,7 +11722,7 @@
         <v>2718</v>
       </c>
       <c r="K218" t="n">
-        <v>27.73109243697479</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L218" t="n">
         <v>961.2</v>
@@ -11751,7 +11773,7 @@
         <v>2719</v>
       </c>
       <c r="K219" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>962</v>
@@ -11802,7 +11824,7 @@
         <v>2724</v>
       </c>
       <c r="K220" t="n">
-        <v>35.29411764705883</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L220" t="n">
         <v>962.5</v>
@@ -11853,7 +11875,7 @@
         <v>2724</v>
       </c>
       <c r="K221" t="n">
-        <v>39.39393939393939</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L221" t="n">
         <v>963</v>
@@ -11904,7 +11926,7 @@
         <v>2736</v>
       </c>
       <c r="K222" t="n">
-        <v>34.78260869565217</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L222" t="n">
         <v>964.7</v>
@@ -11955,7 +11977,7 @@
         <v>2736</v>
       </c>
       <c r="K223" t="n">
-        <v>34.06593406593407</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="L223" t="n">
         <v>966.4</v>
@@ -12006,7 +12028,7 @@
         <v>2736</v>
       </c>
       <c r="K224" t="n">
-        <v>64.86486486486487</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L224" t="n">
         <v>967.9</v>
@@ -12057,7 +12079,7 @@
         <v>2736</v>
       </c>
       <c r="K225" t="n">
-        <v>62.31884057971014</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L225" t="n">
         <v>969.6</v>
@@ -12108,7 +12130,7 @@
         <v>2739</v>
       </c>
       <c r="K226" t="n">
-        <v>58.73015873015873</v>
+        <v>100</v>
       </c>
       <c r="L226" t="n">
         <v>971.6</v>
@@ -12159,7 +12181,7 @@
         <v>2782</v>
       </c>
       <c r="K227" t="n">
-        <v>-5.660377358490567</v>
+        <v>-34.375</v>
       </c>
       <c r="L227" t="n">
         <v>970.4</v>
@@ -12210,7 +12232,7 @@
         <v>2817</v>
       </c>
       <c r="K228" t="n">
-        <v>20.56737588652482</v>
+        <v>12.24489795918367</v>
       </c>
       <c r="L228" t="n">
         <v>971.7</v>
@@ -12261,7 +12283,7 @@
         <v>2833</v>
       </c>
       <c r="K229" t="n">
-        <v>2.702702702702703</v>
+        <v>-8.256880733944955</v>
       </c>
       <c r="L229" t="n">
         <v>971.3</v>
@@ -12312,7 +12334,7 @@
         <v>2833</v>
       </c>
       <c r="K230" t="n">
-        <v>-2.857142857142857</v>
+        <v>-8.256880733944955</v>
       </c>
       <c r="L230" t="n">
         <v>970.4</v>
@@ -12363,7 +12385,7 @@
         <v>2833</v>
       </c>
       <c r="K231" t="n">
-        <v>-2.857142857142857</v>
+        <v>-21.64948453608248</v>
       </c>
       <c r="L231" t="n">
         <v>969.5</v>
@@ -12414,7 +12436,7 @@
         <v>2851</v>
       </c>
       <c r="K232" t="n">
-        <v>8.860759493670885</v>
+        <v>-2.608695652173913</v>
       </c>
       <c r="L232" t="n">
         <v>969.2</v>
@@ -12465,7 +12487,7 @@
         <v>2851</v>
       </c>
       <c r="K233" t="n">
-        <v>8.860759493670885</v>
+        <v>-2.608695652173913</v>
       </c>
       <c r="L233" t="n">
         <v>968.9</v>
@@ -12516,7 +12538,7 @@
         <v>2851</v>
       </c>
       <c r="K234" t="n">
-        <v>7.692307692307693</v>
+        <v>-2.608695652173913</v>
       </c>
       <c r="L234" t="n">
         <v>968.6</v>
@@ -12567,7 +12589,7 @@
         <v>2851</v>
       </c>
       <c r="K235" t="n">
-        <v>9.090909090909092</v>
+        <v>-5.357142857142857</v>
       </c>
       <c r="L235" t="n">
         <v>968.3</v>
@@ -12618,7 +12640,7 @@
         <v>2852</v>
       </c>
       <c r="K236" t="n">
-        <v>9.67741935483871</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="L236" t="n">
         <v>967.8</v>
@@ -12669,7 +12691,7 @@
         <v>2853</v>
       </c>
       <c r="K237" t="n">
-        <v>17.24137931034483</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L237" t="n">
         <v>971.5</v>
@@ -12720,7 +12742,7 @@
         <v>2853</v>
       </c>
       <c r="K238" t="n">
-        <v>11.11111111111111</v>
+        <v>90</v>
       </c>
       <c r="L238" t="n">
         <v>971.7</v>
@@ -12771,7 +12793,7 @@
         <v>2853</v>
       </c>
       <c r="K239" t="n">
-        <v>10.44776119402985</v>
+        <v>90</v>
       </c>
       <c r="L239" t="n">
         <v>973.5</v>
@@ -12822,7 +12844,7 @@
         <v>2854</v>
       </c>
       <c r="K240" t="n">
-        <v>6.153846153846154</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L240" t="n">
         <v>975.2</v>
@@ -12873,7 +12895,7 @@
         <v>2855</v>
       </c>
       <c r="K241" t="n">
-        <v>5.343511450381679</v>
+        <v>-50</v>
       </c>
       <c r="L241" t="n">
         <v>976.8</v>
@@ -12924,7 +12946,7 @@
         <v>2856</v>
       </c>
       <c r="K242" t="n">
-        <v>-3.333333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L242" t="n">
         <v>976.7</v>
@@ -12975,7 +12997,7 @@
         <v>2857</v>
       </c>
       <c r="K243" t="n">
-        <v>-4.132231404958678</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L243" t="n">
         <v>976.5</v>
@@ -13026,7 +13048,7 @@
         <v>2858</v>
       </c>
       <c r="K244" t="n">
-        <v>-4.918032786885246</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L244" t="n">
         <v>976.2</v>
@@ -13077,7 +13099,7 @@
         <v>2863</v>
       </c>
       <c r="K245" t="n">
-        <v>-8.661417322834646</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L245" t="n">
         <v>975.4</v>
@@ -13128,7 +13150,7 @@
         <v>2875</v>
       </c>
       <c r="K246" t="n">
-        <v>-19.11764705882353</v>
+        <v>-90.90909090909091</v>
       </c>
       <c r="L246" t="n">
         <v>973.3</v>
@@ -13179,7 +13201,7 @@
         <v>2875</v>
       </c>
       <c r="K247" t="n">
-        <v>18.27956989247312</v>
+        <v>-90.90909090909091</v>
       </c>
       <c r="L247" t="n">
         <v>971.3</v>
@@ -13230,7 +13252,7 @@
         <v>2889</v>
       </c>
       <c r="K248" t="n">
-        <v>-44.44444444444444</v>
+        <v>-94.44444444444444</v>
       </c>
       <c r="L248" t="n">
         <v>967.9</v>
@@ -13281,7 +13303,7 @@
         <v>2889</v>
       </c>
       <c r="K249" t="n">
-        <v>-28.57142857142857</v>
+        <v>-94.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>964.5</v>
@@ -13332,7 +13354,7 @@
         <v>2892</v>
       </c>
       <c r="K250" t="n">
-        <v>-32.20338983050847</v>
+        <v>-94.5945945945946</v>
       </c>
       <c r="L250" t="n">
         <v>960.9</v>
@@ -13383,7 +13405,7 @@
         <v>2911</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>-30.90909090909091</v>
       </c>
       <c r="L251" t="n">
         <v>959.3</v>
@@ -13434,7 +13456,7 @@
         <v>2930</v>
       </c>
       <c r="K252" t="n">
-        <v>-46.83544303797468</v>
+        <v>-47.94520547945205</v>
       </c>
       <c r="L252" t="n">
         <v>955.7</v>
@@ -13485,7 +13507,7 @@
         <v>2930</v>
       </c>
       <c r="K253" t="n">
-        <v>-46.83544303797468</v>
+        <v>-47.22222222222222</v>
       </c>
       <c r="L253" t="n">
         <v>952.2</v>
@@ -13536,7 +13558,7 @@
         <v>2939</v>
       </c>
       <c r="K254" t="n">
-        <v>-31.81818181818182</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L254" t="n">
         <v>949.7</v>
@@ -13587,7 +13609,7 @@
         <v>2953</v>
       </c>
       <c r="K255" t="n">
-        <v>-41.17647058823529</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L255" t="n">
         <v>946.3</v>
@@ -13638,7 +13660,7 @@
         <v>2956</v>
       </c>
       <c r="K256" t="n">
-        <v>-38.46153846153847</v>
+        <v>-23.45679012345679</v>
       </c>
       <c r="L256" t="n">
         <v>944.4</v>
@@ -13689,7 +13711,7 @@
         <v>2957</v>
       </c>
       <c r="K257" t="n">
-        <v>-38.46153846153847</v>
+        <v>-8.823529411764707</v>
       </c>
       <c r="L257" t="n">
         <v>942.4</v>
@@ -13740,7 +13762,7 @@
         <v>2959</v>
       </c>
       <c r="K258" t="n">
-        <v>-35.84905660377358</v>
+        <v>-5.714285714285714</v>
       </c>
       <c r="L258" t="n">
         <v>942</v>
@@ -13791,7 +13813,7 @@
         <v>2966</v>
       </c>
       <c r="K259" t="n">
-        <v>-27.43362831858407</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L259" t="n">
         <v>942.3</v>
@@ -13842,7 +13864,7 @@
         <v>2977</v>
       </c>
       <c r="K260" t="n">
-        <v>-33.33333333333333</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L260" t="n">
         <v>941.8</v>
@@ -13893,7 +13915,7 @@
         <v>2977</v>
       </c>
       <c r="K261" t="n">
-        <v>-32.78688524590164</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L261" t="n">
         <v>939.4</v>
@@ -13944,7 +13966,7 @@
         <v>2978</v>
       </c>
       <c r="K262" t="n">
-        <v>-34.42622950819672</v>
+        <v>-12.5</v>
       </c>
       <c r="L262" t="n">
         <v>938.8</v>
@@ -13995,7 +14017,7 @@
         <v>3000</v>
       </c>
       <c r="K263" t="n">
-        <v>-44.05594405594406</v>
+        <v>-60.65573770491803</v>
       </c>
       <c r="L263" t="n">
         <v>936</v>
@@ -14046,7 +14068,7 @@
         <v>3001</v>
       </c>
       <c r="K264" t="n">
-        <v>-44.05594405594406</v>
+        <v>-50</v>
       </c>
       <c r="L264" t="n">
         <v>932.2</v>
@@ -14097,7 +14119,7 @@
         <v>3003</v>
       </c>
       <c r="K265" t="n">
-        <v>-42.85714285714285</v>
+        <v>-61.70212765957447</v>
       </c>
       <c r="L265" t="n">
         <v>929.6</v>
@@ -14148,7 +14170,7 @@
         <v>3015</v>
       </c>
       <c r="K266" t="n">
-        <v>-25.71428571428571</v>
+        <v>-27.58620689655172</v>
       </c>
       <c r="L266" t="n">
         <v>927.9</v>
@@ -14199,7 +14221,7 @@
         <v>3016</v>
       </c>
       <c r="K267" t="n">
-        <v>-26.24113475177305</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L267" t="n">
         <v>926.2</v>
@@ -14250,7 +14272,7 @@
         <v>3016</v>
       </c>
       <c r="K268" t="n">
-        <v>-18.11023622047244</v>
+        <v>-52</v>
       </c>
       <c r="L268" t="n">
         <v>924.3</v>
@@ -14301,7 +14323,7 @@
         <v>3031</v>
       </c>
       <c r="K269" t="n">
-        <v>-5.633802816901409</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>923.2</v>
@@ -14352,7 +14374,7 @@
         <v>3045</v>
       </c>
       <c r="K270" t="n">
-        <v>-12.41830065359477</v>
+        <v>-20.58823529411764</v>
       </c>
       <c r="L270" t="n">
         <v>921.8</v>
@@ -14403,7 +14425,7 @@
         <v>3045</v>
       </c>
       <c r="K271" t="n">
-        <v>-28.35820895522388</v>
+        <v>-19.40298507462687</v>
       </c>
       <c r="L271" t="n">
         <v>920.4</v>
@@ -14454,7 +14476,7 @@
         <v>3045</v>
       </c>
       <c r="K272" t="n">
-        <v>-16.52173913043478</v>
+        <v>20</v>
       </c>
       <c r="L272" t="n">
         <v>919.1</v>
@@ -14505,7 +14527,7 @@
         <v>3060</v>
       </c>
       <c r="K273" t="n">
-        <v>-3.076923076923077</v>
+        <v>42.3728813559322</v>
       </c>
       <c r="L273" t="n">
         <v>921.5</v>
@@ -14556,7 +14578,7 @@
         <v>3075</v>
       </c>
       <c r="K274" t="n">
-        <v>-20.58823529411764</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L274" t="n">
         <v>922.5</v>
@@ -14607,7 +14629,7 @@
         <v>3096</v>
       </c>
       <c r="K275" t="n">
-        <v>-24.47552447552448</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L275" t="n">
         <v>921.6</v>
@@ -14658,7 +14680,7 @@
         <v>3097</v>
       </c>
       <c r="K276" t="n">
-        <v>-26.24113475177305</v>
+        <v>-23.45679012345679</v>
       </c>
       <c r="L276" t="n">
         <v>919.6</v>
@@ -14709,7 +14731,7 @@
         <v>3114</v>
       </c>
       <c r="K277" t="n">
-        <v>-33.75796178343949</v>
+        <v>-36.73469387755102</v>
       </c>
       <c r="L277" t="n">
         <v>916</v>
@@ -14760,7 +14782,7 @@
         <v>3116</v>
       </c>
       <c r="K278" t="n">
-        <v>-33.75796178343949</v>
+        <v>-57.64705882352941</v>
       </c>
       <c r="L278" t="n">
         <v>912.6</v>
@@ -14811,7 +14833,7 @@
         <v>3127</v>
       </c>
       <c r="K279" t="n">
-        <v>-30.43478260869566</v>
+        <v>-29.26829268292683</v>
       </c>
       <c r="L279" t="n">
         <v>908.8</v>
@@ -14862,7 +14884,7 @@
         <v>3140</v>
       </c>
       <c r="K280" t="n">
-        <v>-31.28834355828221</v>
+        <v>-38.94736842105263</v>
       </c>
       <c r="L280" t="n">
         <v>905.1</v>
@@ -14913,7 +14935,7 @@
         <v>3142</v>
       </c>
       <c r="K281" t="n">
-        <v>-29.6969696969697</v>
+        <v>-36.08247422680412</v>
       </c>
       <c r="L281" t="n">
         <v>901.6</v>
@@ -14964,7 +14986,7 @@
         <v>3143</v>
       </c>
       <c r="K282" t="n">
-        <v>-29.6969696969697</v>
+        <v>-61.44578313253012</v>
       </c>
       <c r="L282" t="n">
         <v>898</v>
@@ -15015,7 +15037,7 @@
         <v>3150</v>
       </c>
       <c r="K283" t="n">
-        <v>-13.33333333333333</v>
+        <v>-38.66666666666666</v>
       </c>
       <c r="L283" t="n">
         <v>893.6</v>
@@ -15066,7 +15088,7 @@
         <v>3153</v>
       </c>
       <c r="K284" t="n">
-        <v>-14.47368421052632</v>
+        <v>-19.29824561403509</v>
       </c>
       <c r="L284" t="n">
         <v>890.4</v>
@@ -15117,7 +15139,7 @@
         <v>3159</v>
       </c>
       <c r="K285" t="n">
-        <v>-8.974358974358974</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L285" t="n">
         <v>889.9</v>
@@ -15168,7 +15190,7 @@
         <v>3166</v>
       </c>
       <c r="K286" t="n">
-        <v>-21.85430463576159</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L286" t="n">
         <v>888.6</v>
@@ -15219,7 +15241,7 @@
         <v>3173</v>
       </c>
       <c r="K287" t="n">
-        <v>-15.92356687898089</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L287" t="n">
         <v>889.7</v>
@@ -15270,7 +15292,7 @@
         <v>3182</v>
       </c>
       <c r="K288" t="n">
-        <v>-9.638554216867471</v>
+        <v>12.72727272727273</v>
       </c>
       <c r="L288" t="n">
         <v>891.5</v>
@@ -15321,7 +15343,7 @@
         <v>3193</v>
       </c>
       <c r="K289" t="n">
-        <v>-12.34567901234568</v>
+        <v>58.49056603773585</v>
       </c>
       <c r="L289" t="n">
         <v>893.3</v>
@@ -15372,7 +15394,7 @@
         <v>3193</v>
       </c>
       <c r="K290" t="n">
-        <v>-4.054054054054054</v>
+        <v>56.86274509803921</v>
       </c>
       <c r="L290" t="n">
         <v>896.4</v>
@@ -15423,7 +15445,7 @@
         <v>3195</v>
       </c>
       <c r="K291" t="n">
-        <v>-5.333333333333334</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L291" t="n">
         <v>899.1</v>
@@ -15474,7 +15496,7 @@
         <v>3209</v>
       </c>
       <c r="K292" t="n">
-        <v>-13.41463414634146</v>
+        <v>11.86440677966102</v>
       </c>
       <c r="L292" t="n">
         <v>900.5</v>
@@ -15525,7 +15547,7 @@
         <v>3239</v>
       </c>
       <c r="K293" t="n">
-        <v>-3.910614525139665</v>
+        <v>46.51162790697674</v>
       </c>
       <c r="L293" t="n">
         <v>904.2</v>
@@ -15576,7 +15598,7 @@
         <v>3240</v>
       </c>
       <c r="K294" t="n">
-        <v>4.242424242424243</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L294" t="n">
         <v>908.1</v>
@@ -15627,7 +15649,7 @@
         <v>3265</v>
       </c>
       <c r="K295" t="n">
-        <v>1.775147928994083</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L295" t="n">
         <v>908.9</v>
@@ -15678,7 +15700,7 @@
         <v>3274</v>
       </c>
       <c r="K296" t="n">
-        <v>6.214689265536723</v>
+        <v>16.83168316831683</v>
       </c>
       <c r="L296" t="n">
         <v>911.3</v>
@@ -15729,7 +15751,7 @@
         <v>3274</v>
       </c>
       <c r="K297" t="n">
-        <v>17.5</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L297" t="n">
         <v>913</v>
@@ -15780,7 +15802,7 @@
         <v>3289</v>
       </c>
       <c r="K298" t="n">
-        <v>23.69942196531792</v>
+        <v>12.5</v>
       </c>
       <c r="L298" t="n">
         <v>915.3</v>
@@ -15831,7 +15853,7 @@
         <v>3312</v>
       </c>
       <c r="K299" t="n">
-        <v>3.783783783783784</v>
+        <v>-9.243697478991598</v>
       </c>
       <c r="L299" t="n">
         <v>914.2</v>
@@ -15882,7 +15904,7 @@
         <v>3322</v>
       </c>
       <c r="K300" t="n">
-        <v>5.494505494505495</v>
+        <v>-14.96062992125984</v>
       </c>
       <c r="L300" t="n">
         <v>912.1</v>
@@ -15933,7 +15955,7 @@
         <v>3350</v>
       </c>
       <c r="K301" t="n">
-        <v>17.30769230769231</v>
+        <v>16.31205673758866</v>
       </c>
       <c r="L301" t="n">
         <v>913</v>
@@ -15984,7 +16006,7 @@
         <v>3357</v>
       </c>
       <c r="K302" t="n">
-        <v>14.01869158878505</v>
+        <v>-11.86440677966102</v>
       </c>
       <c r="L302" t="n">
         <v>914.6</v>
@@ -16035,7 +16057,7 @@
         <v>3361</v>
       </c>
       <c r="K303" t="n">
-        <v>12.79620853080569</v>
+        <v>-7.43801652892562</v>
       </c>
       <c r="L303" t="n">
         <v>913.6</v>
@@ -16086,7 +16108,7 @@
         <v>3365</v>
       </c>
       <c r="K304" t="n">
-        <v>12.26415094339623</v>
+        <v>12</v>
       </c>
       <c r="L304" t="n">
         <v>912.3</v>
@@ -16137,7 +16159,7 @@
         <v>3384</v>
       </c>
       <c r="K305" t="n">
-        <v>0.4444444444444444</v>
+        <v>-14.54545454545454</v>
       </c>
       <c r="L305" t="n">
         <v>911.6</v>
@@ -16188,7 +16210,7 @@
         <v>3392</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>-20.33898305084746</v>
       </c>
       <c r="L306" t="n">
         <v>909.2</v>
@@ -16239,7 +16261,7 @@
         <v>3395</v>
       </c>
       <c r="K307" t="n">
-        <v>-4.504504504504505</v>
+        <v>-39.62264150943396</v>
       </c>
       <c r="L307" t="n">
         <v>906.5</v>
@@ -16290,7 +16312,7 @@
         <v>3398</v>
       </c>
       <c r="K308" t="n">
-        <v>-7.407407407407407</v>
+        <v>-18.6046511627907</v>
       </c>
       <c r="L308" t="n">
         <v>902.6</v>
@@ -16341,7 +16363,7 @@
         <v>3401</v>
       </c>
       <c r="K309" t="n">
-        <v>-14.42307692307692</v>
+        <v>-11.39240506329114</v>
       </c>
       <c r="L309" t="n">
         <v>900.7</v>
@@ -16392,7 +16414,7 @@
         <v>3401</v>
       </c>
       <c r="K310" t="n">
-        <v>-14.42307692307692</v>
+        <v>-72.54901960784314</v>
       </c>
       <c r="L310" t="n">
         <v>899.8</v>
@@ -16443,7 +16465,7 @@
         <v>3401</v>
       </c>
       <c r="K311" t="n">
-        <v>-13.59223300970874</v>
+        <v>-68.18181818181817</v>
       </c>
       <c r="L311" t="n">
         <v>896.1</v>
@@ -16494,7 +16516,7 @@
         <v>3419</v>
       </c>
       <c r="K312" t="n">
-        <v>-15.23809523809524</v>
+        <v>-89.65517241379311</v>
       </c>
       <c r="L312" t="n">
         <v>891.3</v>
@@ -16545,7 +16567,7 @@
         <v>3419</v>
       </c>
       <c r="K313" t="n">
-        <v>-34.44444444444444</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L313" t="n">
         <v>886.1</v>
@@ -16596,7 +16618,7 @@
         <v>3420</v>
       </c>
       <c r="K314" t="n">
-        <v>-34.44444444444444</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L314" t="n">
         <v>881.2</v>
@@ -16647,7 +16669,7 @@
         <v>3420</v>
       </c>
       <c r="K315" t="n">
-        <v>-23.87096774193548</v>
+        <v>-78.57142857142857</v>
       </c>
       <c r="L315" t="n">
         <v>878.2</v>
@@ -16698,7 +16720,7 @@
         <v>3420</v>
       </c>
       <c r="K316" t="n">
-        <v>-31.50684931506849</v>
+        <v>-76</v>
       </c>
       <c r="L316" t="n">
         <v>876</v>
@@ -16749,7 +16771,7 @@
         <v>3425</v>
       </c>
       <c r="K317" t="n">
-        <v>-33.77483443708609</v>
+        <v>-100</v>
       </c>
       <c r="L317" t="n">
         <v>873.6</v>
@@ -16800,7 +16822,7 @@
         <v>3430</v>
       </c>
       <c r="K318" t="n">
-        <v>-50.35460992907801</v>
+        <v>-100</v>
       </c>
       <c r="L318" t="n">
         <v>870.4</v>
@@ -16851,7 +16873,7 @@
         <v>3433</v>
       </c>
       <c r="K319" t="n">
-        <v>-42.14876033057851</v>
+        <v>-100</v>
       </c>
       <c r="L319" t="n">
         <v>867.2</v>
@@ -16902,7 +16924,7 @@
         <v>3433</v>
       </c>
       <c r="K320" t="n">
-        <v>-36.93693693693694</v>
+        <v>-100</v>
       </c>
       <c r="L320" t="n">
         <v>864</v>
@@ -16953,7 +16975,7 @@
         <v>3453</v>
       </c>
       <c r="K321" t="n">
-        <v>-47.57281553398058</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L321" t="n">
         <v>862.8</v>
@@ -17004,7 +17026,7 @@
         <v>3466</v>
       </c>
       <c r="K322" t="n">
-        <v>-50.45871559633027</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L322" t="n">
         <v>862.1</v>
@@ -17055,7 +17077,7 @@
         <v>3473</v>
       </c>
       <c r="K323" t="n">
-        <v>-58.92857142857143</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L323" t="n">
         <v>860.7</v>
@@ -17106,7 +17128,7 @@
         <v>3473</v>
       </c>
       <c r="K324" t="n">
-        <v>-57.4074074074074</v>
+        <v>-24.52830188679245</v>
       </c>
       <c r="L324" t="n">
         <v>859.4</v>
@@ -17157,7 +17179,7 @@
         <v>3484</v>
       </c>
       <c r="K325" t="n">
-        <v>-54</v>
+        <v>-37.5</v>
       </c>
       <c r="L325" t="n">
         <v>857</v>
@@ -17208,7 +17230,7 @@
         <v>3494</v>
       </c>
       <c r="K326" t="n">
-        <v>-54.90196078431373</v>
+        <v>-42.02898550724638</v>
       </c>
       <c r="L326" t="n">
         <v>853.6</v>
@@ -17259,7 +17281,7 @@
         <v>3508</v>
       </c>
       <c r="K327" t="n">
-        <v>-34.51327433628318</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="L327" t="n">
         <v>852.1</v>
@@ -17310,7 +17332,7 @@
         <v>3522</v>
       </c>
       <c r="K328" t="n">
-        <v>-45.16129032258064</v>
+        <v>-23.59550561797753</v>
       </c>
       <c r="L328" t="n">
         <v>849.7</v>
@@ -17361,7 +17383,7 @@
         <v>3524</v>
       </c>
       <c r="K329" t="n">
-        <v>-41.46341463414634</v>
+        <v>-20.87912087912088</v>
       </c>
       <c r="L329" t="n">
         <v>847.8</v>
@@ -17412,7 +17434,7 @@
         <v>3525</v>
       </c>
       <c r="K330" t="n">
-        <v>-41.93548387096774</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L330" t="n">
         <v>845.8</v>
@@ -17463,7 +17485,7 @@
         <v>3551</v>
       </c>
       <c r="K331" t="n">
-        <v>-17.33333333333334</v>
+        <v>-1.176470588235294</v>
       </c>
       <c r="L331" t="n">
         <v>844.4</v>
@@ -17514,7 +17536,7 @@
         <v>3561</v>
       </c>
       <c r="K332" t="n">
-        <v>-12.67605633802817</v>
+        <v>-4.545454545454546</v>
       </c>
       <c r="L332" t="n">
         <v>843.3</v>
@@ -17565,7 +17587,7 @@
         <v>3563</v>
       </c>
       <c r="K333" t="n">
-        <v>-11.11111111111111</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L333" t="n">
         <v>843.1</v>
@@ -17616,7 +17638,7 @@
         <v>3563</v>
       </c>
       <c r="K334" t="n">
-        <v>-10.48951048951049</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="L334" t="n">
         <v>842.9</v>
@@ -17667,7 +17689,7 @@
         <v>3579</v>
       </c>
       <c r="K335" t="n">
-        <v>0.628930817610063</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L335" t="n">
         <v>845.4</v>
@@ -17718,7 +17740,7 @@
         <v>3586</v>
       </c>
       <c r="K336" t="n">
-        <v>4.819277108433735</v>
+        <v>35.8974358974359</v>
       </c>
       <c r="L336" t="n">
         <v>849.6</v>
@@ -17769,7 +17791,7 @@
         <v>3609</v>
       </c>
       <c r="K337" t="n">
-        <v>-5.434782608695652</v>
+        <v>21.83908045977012</v>
       </c>
       <c r="L337" t="n">
         <v>850.1</v>
@@ -17820,7 +17842,7 @@
         <v>3630</v>
       </c>
       <c r="K338" t="n">
-        <v>8</v>
+        <v>35.84905660377358</v>
       </c>
       <c r="L338" t="n">
         <v>854.1</v>
@@ -17871,7 +17893,7 @@
         <v>3632</v>
       </c>
       <c r="K339" t="n">
-        <v>8.542713567839195</v>
+        <v>34.57943925233645</v>
       </c>
       <c r="L339" t="n">
         <v>857.7</v>
@@ -17922,7 +17944,7 @@
         <v>3632</v>
       </c>
       <c r="K340" t="n">
-        <v>8.542713567839195</v>
+        <v>13.58024691358025</v>
       </c>
       <c r="L340" t="n">
         <v>861.4</v>
@@ -17973,7 +17995,7 @@
         <v>3634</v>
       </c>
       <c r="K341" t="n">
-        <v>-0.5524861878453038</v>
+        <v>31.50684931506849</v>
       </c>
       <c r="L341" t="n">
         <v>862.7</v>
@@ -18024,7 +18046,7 @@
         <v>3635</v>
       </c>
       <c r="K342" t="n">
-        <v>7.692307692307693</v>
+        <v>30.55555555555556</v>
       </c>
       <c r="L342" t="n">
         <v>865.1</v>
@@ -18075,7 +18097,7 @@
         <v>3640</v>
       </c>
       <c r="K343" t="n">
-        <v>14.97005988023952</v>
+        <v>35.06493506493506</v>
       </c>
       <c r="L343" t="n">
         <v>867.8</v>
@@ -18126,7 +18148,7 @@
         <v>3640</v>
       </c>
       <c r="K344" t="n">
-        <v>14.97005988023952</v>
+        <v>18.0327868852459</v>
       </c>
       <c r="L344" t="n">
         <v>870.5</v>
@@ -18177,7 +18199,7 @@
         <v>3666</v>
       </c>
       <c r="K345" t="n">
-        <v>34.06593406593407</v>
+        <v>37.5</v>
       </c>
       <c r="L345" t="n">
         <v>874.2</v>
@@ -18228,7 +18250,7 @@
         <v>3668</v>
       </c>
       <c r="K346" t="n">
-        <v>40.22988505747126</v>
+        <v>86.4406779661017</v>
       </c>
       <c r="L346" t="n">
         <v>877</v>
@@ -18279,7 +18301,7 @@
         <v>3675</v>
       </c>
       <c r="K347" t="n">
-        <v>29.34131736526946</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L347" t="n">
         <v>881.4</v>
@@ -18330,7 +18352,7 @@
         <v>3698</v>
       </c>
       <c r="K348" t="n">
-        <v>22.72727272727273</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L348" t="n">
         <v>881.4</v>
@@ -18381,7 +18403,7 @@
         <v>3706</v>
       </c>
       <c r="K349" t="n">
-        <v>25.27472527472527</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L349" t="n">
         <v>882.4</v>
@@ -18432,7 +18454,7 @@
         <v>3706</v>
       </c>
       <c r="K350" t="n">
-        <v>25.96685082872928</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L350" t="n">
         <v>883.4</v>
@@ -18483,7 +18505,7 @@
         <v>3709</v>
       </c>
       <c r="K351" t="n">
-        <v>15.18987341772152</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L351" t="n">
         <v>884.5</v>
@@ -18534,7 +18556,7 @@
         <v>3712</v>
       </c>
       <c r="K352" t="n">
-        <v>24.50331125827815</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L352" t="n">
         <v>885.8</v>
@@ -18585,7 +18607,7 @@
         <v>3723</v>
       </c>
       <c r="K353" t="n">
-        <v>15</v>
+        <v>-3.614457831325301</v>
       </c>
       <c r="L353" t="n">
         <v>885.5</v>
@@ -18636,7 +18658,7 @@
         <v>3733</v>
       </c>
       <c r="K354" t="n">
-        <v>20</v>
+        <v>-28.35820895522388</v>
       </c>
       <c r="L354" t="n">
         <v>886.2</v>
@@ -18687,7 +18709,7 @@
         <v>3746</v>
       </c>
       <c r="K355" t="n">
-        <v>2.994011976047904</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L355" t="n">
         <v>883</v>
@@ -18738,7 +18760,7 @@
         <v>3746</v>
       </c>
       <c r="K356" t="n">
-        <v>-1.25</v>
+        <v>-32.3943661971831</v>
       </c>
       <c r="L356" t="n">
         <v>880</v>
@@ -18789,7 +18811,7 @@
         <v>3746</v>
       </c>
       <c r="K357" t="n">
-        <v>15.32846715328467</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>877.7</v>
@@ -18840,7 +18862,7 @@
         <v>3749</v>
       </c>
       <c r="K358" t="n">
-        <v>2.521008403361344</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L358" t="n">
         <v>878</v>
@@ -18891,7 +18913,7 @@
         <v>3766</v>
       </c>
       <c r="K359" t="n">
-        <v>-8.955223880597014</v>
+        <v>-36.66666666666666</v>
       </c>
       <c r="L359" t="n">
         <v>875.8</v>
@@ -18942,7 +18964,7 @@
         <v>3767</v>
       </c>
       <c r="K360" t="n">
-        <v>-9.62962962962963</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L360" t="n">
         <v>873.5</v>
@@ -18993,7 +19015,7 @@
         <v>3767</v>
       </c>
       <c r="K361" t="n">
-        <v>-11.2781954887218</v>
+        <v>-52.72727272727272</v>
       </c>
       <c r="L361" t="n">
         <v>870.9</v>
@@ -19044,7 +19066,7 @@
         <v>3774</v>
       </c>
       <c r="K362" t="n">
-        <v>-6.474820143884892</v>
+        <v>-21.56862745098039</v>
       </c>
       <c r="L362" t="n">
         <v>868.7</v>
@@ -19095,7 +19117,7 @@
         <v>3774</v>
       </c>
       <c r="K363" t="n">
-        <v>-10.44776119402985</v>
+        <v>-51.21951219512195</v>
       </c>
       <c r="L363" t="n">
         <v>867.6</v>
@@ -19146,7 +19168,7 @@
         <v>3794</v>
       </c>
       <c r="K364" t="n">
-        <v>3.896103896103896</v>
+        <v>25</v>
       </c>
       <c r="L364" t="n">
         <v>867.5</v>
@@ -19197,7 +19219,7 @@
         <v>3796</v>
       </c>
       <c r="K365" t="n">
-        <v>-13.84615384615385</v>
+        <v>28</v>
       </c>
       <c r="L365" t="n">
         <v>868.9</v>
@@ -19248,7 +19270,7 @@
         <v>3804</v>
       </c>
       <c r="K366" t="n">
-        <v>-5.88235294117647</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L366" t="n">
         <v>871.1</v>
@@ -19299,7 +19321,7 @@
         <v>3809</v>
       </c>
       <c r="K367" t="n">
-        <v>2.985074626865671</v>
+        <v>40</v>
       </c>
       <c r="L367" t="n">
         <v>873.8</v>
@@ -19350,7 +19372,7 @@
         <v>3810</v>
       </c>
       <c r="K368" t="n">
-        <v>23.21428571428572</v>
+        <v>90.90909090909091</v>
       </c>
       <c r="L368" t="n">
         <v>876.1</v>
@@ -19401,7 +19423,7 @@
         <v>3813</v>
       </c>
       <c r="K369" t="n">
-        <v>14.01869158878505</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L369" t="n">
         <v>879.8</v>
@@ -19452,7 +19474,7 @@
         <v>3813</v>
       </c>
       <c r="K370" t="n">
-        <v>14.01869158878505</v>
+        <v>82.60869565217391</v>
       </c>
       <c r="L370" t="n">
         <v>883.6</v>
@@ -19503,7 +19525,7 @@
         <v>3848</v>
       </c>
       <c r="K371" t="n">
-        <v>-16.54676258992806</v>
+        <v>-5.405405405405405</v>
       </c>
       <c r="L371" t="n">
         <v>883.9</v>
@@ -19554,7 +19576,7 @@
         <v>3872</v>
       </c>
       <c r="K372" t="n">
-        <v>-1.25</v>
+        <v>20.40816326530612</v>
       </c>
       <c r="L372" t="n">
         <v>885.9</v>
@@ -19605,7 +19627,7 @@
         <v>3872</v>
       </c>
       <c r="K373" t="n">
-        <v>6.04026845637584</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>887.9</v>
@@ -19656,7 +19678,7 @@
         <v>3872</v>
       </c>
       <c r="K374" t="n">
-        <v>-0.7194244604316548</v>
+        <v>-2.631578947368421</v>
       </c>
       <c r="L374" t="n">
         <v>887.9</v>
@@ -19707,7 +19729,7 @@
         <v>3889</v>
       </c>
       <c r="K375" t="n">
-        <v>-3.496503496503497</v>
+        <v>-31.76470588235294</v>
       </c>
       <c r="L375" t="n">
         <v>886</v>
@@ -19758,7 +19780,7 @@
         <v>3912</v>
       </c>
       <c r="K376" t="n">
-        <v>10.8433734939759</v>
+        <v>-8.737864077669903</v>
       </c>
       <c r="L376" t="n">
         <v>885.6</v>
@@ -19809,7 +19831,7 @@
         <v>3935</v>
       </c>
       <c r="K377" t="n">
-        <v>-2.645502645502646</v>
+        <v>-24.8</v>
       </c>
       <c r="L377" t="n">
         <v>882.4</v>
@@ -19860,7 +19882,7 @@
         <v>3935</v>
       </c>
       <c r="K378" t="n">
-        <v>-4.301075268817205</v>
+        <v>-22.95081967213115</v>
       </c>
       <c r="L378" t="n">
         <v>879.3</v>
@@ -19911,7 +19933,7 @@
         <v>3950</v>
       </c>
       <c r="K379" t="n">
-        <v>13.04347826086956</v>
+        <v>-9.48905109489051</v>
       </c>
       <c r="L379" t="n">
         <v>878</v>
@@ -19962,7 +19984,7 @@
         <v>3966</v>
       </c>
       <c r="K380" t="n">
-        <v>4.522613065326634</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L380" t="n">
         <v>875.1</v>
@@ -20013,7 +20035,7 @@
         <v>3966</v>
       </c>
       <c r="K381" t="n">
-        <v>4.522613065326634</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L381" t="n">
         <v>875.7</v>
@@ -20064,7 +20086,7 @@
         <v>3966</v>
       </c>
       <c r="K382" t="n">
-        <v>1.041666666666667</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L382" t="n">
         <v>873.9</v>
@@ -20115,7 +20137,7 @@
         <v>3983</v>
       </c>
       <c r="K383" t="n">
-        <v>9.090909090909092</v>
+        <v>-0.9009009009009009</v>
       </c>
       <c r="L383" t="n">
         <v>873.8</v>
@@ -20166,7 +20188,7 @@
         <v>4000</v>
       </c>
       <c r="K384" t="n">
-        <v>-8.737864077669903</v>
+        <v>-0.9009009009009009</v>
       </c>
       <c r="L384" t="n">
         <v>872</v>
@@ -20217,7 +20239,7 @@
         <v>4016</v>
       </c>
       <c r="K385" t="n">
-        <v>-1.818181818181818</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L385" t="n">
         <v>873.5</v>
@@ -20268,7 +20290,7 @@
         <v>4025</v>
       </c>
       <c r="K386" t="n">
-        <v>-1.357466063348416</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L386" t="n">
         <v>873.6</v>
@@ -20319,7 +20341,7 @@
         <v>4026</v>
       </c>
       <c r="K387" t="n">
-        <v>-3.225806451612903</v>
+        <v>27.47252747252747</v>
       </c>
       <c r="L387" t="n">
         <v>876.1</v>
@@ -20370,7 +20392,7 @@
         <v>4034</v>
       </c>
       <c r="K388" t="n">
-        <v>0.8928571428571428</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L388" t="n">
         <v>879.4</v>
@@ -20421,7 +20443,7 @@
         <v>4063</v>
       </c>
       <c r="K389" t="n">
-        <v>13.6</v>
+        <v>64.94845360824742</v>
       </c>
       <c r="L389" t="n">
         <v>884.1</v>
@@ -20472,7 +20494,7 @@
         <v>4063</v>
       </c>
       <c r="K390" t="n">
-        <v>13.6</v>
+        <v>64.94845360824742</v>
       </c>
       <c r="L390" t="n">
         <v>890.4</v>
@@ -20523,7 +20545,7 @@
         <v>4070</v>
       </c>
       <c r="K391" t="n">
-        <v>34.23423423423424</v>
+        <v>67.30769230769231</v>
       </c>
       <c r="L391" t="n">
         <v>897.4</v>
@@ -20574,7 +20596,7 @@
         <v>4071</v>
       </c>
       <c r="K392" t="n">
-        <v>25.62814070351759</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="L392" t="n">
         <v>904.3</v>
@@ -20625,7 +20647,7 @@
         <v>4072</v>
       </c>
       <c r="K393" t="n">
-        <v>25</v>
+        <v>94.44444444444444</v>
       </c>
       <c r="L393" t="n">
         <v>909.4</v>
@@ -20676,7 +20698,7 @@
         <v>4077</v>
       </c>
       <c r="K394" t="n">
-        <v>21.95121951219512</v>
+        <v>77.04918032786885</v>
       </c>
       <c r="L394" t="n">
         <v>915.7</v>
@@ -20727,7 +20749,7 @@
         <v>4077</v>
       </c>
       <c r="K395" t="n">
-        <v>32.97872340425532</v>
+        <v>73.07692307692307</v>
       </c>
       <c r="L395" t="n">
         <v>920.4</v>
@@ -20778,7 +20800,7 @@
         <v>4101</v>
       </c>
       <c r="K396" t="n">
-        <v>7.936507936507936</v>
+        <v>17.33333333333334</v>
       </c>
       <c r="L396" t="n">
         <v>921.8</v>
@@ -20829,7 +20851,7 @@
         <v>4121</v>
       </c>
       <c r="K397" t="n">
-        <v>9.67741935483871</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L397" t="n">
         <v>921.1</v>
@@ -20880,7 +20902,7 @@
         <v>4146</v>
       </c>
       <c r="K398" t="n">
-        <v>20.37914691943128</v>
+        <v>-22.89156626506024</v>
       </c>
       <c r="L398" t="n">
         <v>922.1</v>
@@ -20931,7 +20953,7 @@
         <v>4157</v>
       </c>
       <c r="K399" t="n">
-        <v>8.212560386473431</v>
+        <v>-31.91489361702128</v>
       </c>
       <c r="L399" t="n">
         <v>919.1</v>
@@ -20982,7 +21004,7 @@
         <v>4161</v>
       </c>
       <c r="K400" t="n">
-        <v>14.87179487179487</v>
+        <v>-45.05494505494506</v>
       </c>
       <c r="L400" t="n">
         <v>915.7</v>
@@ -21033,7 +21055,7 @@
         <v>4179</v>
       </c>
       <c r="K401" t="n">
-        <v>22.06572769953052</v>
+        <v>-20.37037037037037</v>
       </c>
       <c r="L401" t="n">
         <v>913.4</v>
@@ -21084,7 +21106,7 @@
         <v>4179</v>
       </c>
       <c r="K402" t="n">
-        <v>22.06572769953052</v>
+        <v>-19.62616822429906</v>
       </c>
       <c r="L402" t="n">
         <v>911.2</v>
@@ -21135,7 +21157,7 @@
         <v>4200</v>
       </c>
       <c r="K403" t="n">
-        <v>4.147465437788019</v>
+        <v>-30.08130081300813</v>
       </c>
       <c r="L403" t="n">
         <v>907</v>
@@ -21186,7 +21208,7 @@
         <v>4200</v>
       </c>
       <c r="K404" t="n">
-        <v>13</v>
+        <v>-30.08130081300813</v>
       </c>
       <c r="L404" t="n">
         <v>903.3</v>
@@ -21237,7 +21259,7 @@
         <v>4200</v>
       </c>
       <c r="K405" t="n">
-        <v>5.434782608695652</v>
+        <v>-13.13131313131313</v>
       </c>
       <c r="L405" t="n">
         <v>899.6</v>
@@ -21288,7 +21310,7 @@
         <v>4218</v>
       </c>
       <c r="K406" t="n">
-        <v>9.844559585492227</v>
+        <v>25.77319587628866</v>
       </c>
       <c r="L406" t="n">
         <v>900.1</v>
@@ -21339,7 +21361,7 @@
         <v>4236</v>
       </c>
       <c r="K407" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L407" t="n">
         <v>900.8</v>
@@ -21390,7 +21412,7 @@
         <v>4236</v>
       </c>
       <c r="K408" t="n">
-        <v>-3.96039603960396</v>
+        <v>-8.860759493670885</v>
       </c>
       <c r="L408" t="n">
         <v>899</v>
@@ -21441,7 +21463,7 @@
         <v>4243</v>
       </c>
       <c r="K409" t="n">
-        <v>-16.66666666666666</v>
+        <v>4.878048780487805</v>
       </c>
       <c r="L409" t="n">
         <v>899</v>
@@ -21492,7 +21514,7 @@
         <v>4250</v>
       </c>
       <c r="K410" t="n">
-        <v>-19.78609625668449</v>
+        <v>-29.57746478873239</v>
       </c>
       <c r="L410" t="n">
         <v>898.7</v>
@@ -21543,7 +21565,7 @@
         <v>4250</v>
       </c>
       <c r="K411" t="n">
-        <v>-24.44444444444444</v>
+        <v>-29.57746478873239</v>
       </c>
       <c r="L411" t="n">
         <v>896.6</v>
@@ -21594,7 +21616,7 @@
         <v>4253</v>
       </c>
       <c r="K412" t="n">
-        <v>-21.97802197802198</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L412" t="n">
         <v>894.8</v>
@@ -21645,7 +21667,7 @@
         <v>4253</v>
       </c>
       <c r="K413" t="n">
-        <v>-21.54696132596685</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L413" t="n">
         <v>895.1</v>
@@ -21696,7 +21718,7 @@
         <v>4255</v>
       </c>
       <c r="K414" t="n">
-        <v>-17.97752808988764</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L414" t="n">
         <v>895.6</v>
@@ -21747,7 +21769,7 @@
         <v>4258</v>
       </c>
       <c r="K415" t="n">
-        <v>-19.33701657458564</v>
+        <v>-40</v>
       </c>
       <c r="L415" t="n">
         <v>895.8</v>
@@ -21798,7 +21820,7 @@
         <v>4258</v>
       </c>
       <c r="K416" t="n">
-        <v>-7.006369426751593</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L416" t="n">
         <v>894.2</v>
@@ -21849,7 +21871,7 @@
         <v>4259</v>
       </c>
       <c r="K417" t="n">
-        <v>5.797101449275362</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L417" t="n">
         <v>894.3</v>
@@ -21900,7 +21922,7 @@
         <v>4264</v>
       </c>
       <c r="K418" t="n">
-        <v>-18.64406779661017</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L418" t="n">
         <v>893.9</v>
@@ -21951,7 +21973,7 @@
         <v>4270</v>
       </c>
       <c r="K419" t="n">
-        <v>-15.04424778761062</v>
+        <v>-50</v>
       </c>
       <c r="L419" t="n">
         <v>892.2</v>
@@ -22002,7 +22024,7 @@
         <v>4291</v>
       </c>
       <c r="K420" t="n">
-        <v>-26.15384615384616</v>
+        <v>-75.60975609756098</v>
       </c>
       <c r="L420" t="n">
         <v>889.1</v>
@@ -22053,7 +22075,7 @@
         <v>4292</v>
       </c>
       <c r="K421" t="n">
-        <v>-46.90265486725664</v>
+        <v>-89.74358974358975</v>
       </c>
       <c r="L421" t="n">
         <v>885.9</v>
@@ -22104,7 +22126,7 @@
         <v>4293</v>
       </c>
       <c r="K422" t="n">
-        <v>-45.61403508771929</v>
+        <v>-85</v>
       </c>
       <c r="L422" t="n">
         <v>882.5</v>
@@ -22155,7 +22177,7 @@
         <v>4306</v>
       </c>
       <c r="K423" t="n">
-        <v>-16.9811320754717</v>
+        <v>-45.09803921568628</v>
       </c>
       <c r="L423" t="n">
         <v>880.4</v>
@@ -22206,7 +22228,7 @@
         <v>4313</v>
       </c>
       <c r="K424" t="n">
-        <v>-22.12389380530973</v>
+        <v>-49.09090909090909</v>
       </c>
       <c r="L424" t="n">
         <v>877.4</v>
@@ -22257,7 +22279,7 @@
         <v>4330</v>
       </c>
       <c r="K425" t="n">
-        <v>-6.153846153846154</v>
+        <v>-13.88888888888889</v>
       </c>
       <c r="L425" t="n">
         <v>876.4</v>
@@ -22308,7 +22330,7 @@
         <v>4345</v>
       </c>
       <c r="K426" t="n">
-        <v>-32.28346456692913</v>
+        <v>-27.90697674418605</v>
       </c>
       <c r="L426" t="n">
         <v>873.9</v>
@@ -22359,7 +22381,7 @@
         <v>4347</v>
       </c>
       <c r="K427" t="n">
-        <v>-22.52252252252252</v>
+        <v>-25.30120481927711</v>
       </c>
       <c r="L427" t="n">
         <v>871.3</v>
@@ -22410,7 +22432,7 @@
         <v>4349</v>
       </c>
       <c r="K428" t="n">
-        <v>-23.89380530973451</v>
+        <v>-21.51898734177215</v>
       </c>
       <c r="L428" t="n">
         <v>869</v>
@@ -22461,7 +22483,7 @@
         <v>4370</v>
       </c>
       <c r="K429" t="n">
-        <v>-43.30708661417323</v>
+        <v>-21.51898734177215</v>
       </c>
       <c r="L429" t="n">
         <v>865.2</v>
@@ -22512,7 +22534,7 @@
         <v>4392</v>
       </c>
       <c r="K430" t="n">
-        <v>-49.29577464788733</v>
+        <v>-38</v>
       </c>
       <c r="L430" t="n">
         <v>861.3</v>
@@ -22563,7 +22585,7 @@
         <v>4413</v>
       </c>
       <c r="K431" t="n">
-        <v>-30.06134969325153</v>
+        <v>-15</v>
       </c>
       <c r="L431" t="n">
         <v>859.6</v>
@@ -22614,7 +22636,7 @@
         <v>4429</v>
       </c>
       <c r="K432" t="n">
-        <v>-38.63636363636363</v>
+        <v>-38.21138211382114</v>
       </c>
       <c r="L432" t="n">
         <v>856.2</v>
@@ -22665,7 +22687,7 @@
         <v>4433</v>
       </c>
       <c r="K433" t="n">
-        <v>-35.55555555555556</v>
+        <v>-30</v>
       </c>
       <c r="L433" t="n">
         <v>851.9</v>
@@ -22716,7 +22738,7 @@
         <v>4437</v>
       </c>
       <c r="K434" t="n">
-        <v>-34.06593406593407</v>
+        <v>-45.79439252336449</v>
       </c>
       <c r="L434" t="n">
         <v>848.7</v>
@@ -22767,7 +22789,7 @@
         <v>4438</v>
       </c>
       <c r="K435" t="n">
-        <v>-33.33333333333333</v>
+        <v>-37.63440860215054</v>
       </c>
       <c r="L435" t="n">
         <v>843.7</v>
@@ -22818,7 +22840,7 @@
         <v>4440</v>
       </c>
       <c r="K436" t="n">
-        <v>-34.06593406593407</v>
+        <v>-37.63440860215054</v>
       </c>
       <c r="L436" t="n">
         <v>840</v>
@@ -22869,7 +22891,7 @@
         <v>4443</v>
       </c>
       <c r="K437" t="n">
-        <v>-34.78260869565217</v>
+        <v>-38.29787234042553</v>
       </c>
       <c r="L437" t="n">
         <v>836.2</v>
@@ -22920,7 +22942,7 @@
         <v>4443</v>
       </c>
       <c r="K438" t="n">
-        <v>-32.9608938547486</v>
+        <v>-20.54794520547945</v>
       </c>
       <c r="L438" t="n">
         <v>832.6</v>
@@ -22971,7 +22993,7 @@
         <v>4457</v>
       </c>
       <c r="K439" t="n">
-        <v>-20.85561497326203</v>
+        <v>32.30769230769231</v>
       </c>
       <c r="L439" t="n">
         <v>832.5</v>
@@ -23022,7 +23044,7 @@
         <v>4458</v>
       </c>
       <c r="K440" t="n">
-        <v>-10.17964071856287</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="L440" t="n">
         <v>834.7</v>
@@ -23073,7 +23095,7 @@
         <v>4458</v>
       </c>
       <c r="K441" t="n">
-        <v>-9.638554216867471</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L441" t="n">
         <v>834.8</v>
@@ -23124,7 +23146,7 @@
         <v>4474</v>
       </c>
       <c r="K442" t="n">
-        <v>-0.5524861878453038</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="L442" t="n">
         <v>838.1</v>
@@ -23175,7 +23197,7 @@
         <v>4474</v>
       </c>
       <c r="K443" t="n">
-        <v>-8.333333333333332</v>
+        <v>67.56756756756756</v>
       </c>
       <c r="L443" t="n">
         <v>841</v>
@@ -23226,7 +23248,7 @@
         <v>4500</v>
       </c>
       <c r="K444" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L444" t="n">
         <v>840.9</v>
@@ -23277,7 +23299,7 @@
         <v>4502</v>
       </c>
       <c r="K445" t="n">
-        <v>-30.23255813953488</v>
+        <v>0</v>
       </c>
       <c r="L445" t="n">
         <v>840.7</v>
@@ -23328,7 +23350,7 @@
         <v>4502</v>
       </c>
       <c r="K446" t="n">
-        <v>-23.56687898089172</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L446" t="n">
         <v>840.7</v>
@@ -23379,7 +23401,7 @@
         <v>4530</v>
       </c>
       <c r="K447" t="n">
-        <v>-3.825136612021858</v>
+        <v>35.63218390804598</v>
       </c>
       <c r="L447" t="n">
         <v>843.8</v>
@@ -23430,7 +23452,7 @@
         <v>4530</v>
       </c>
       <c r="K448" t="n">
-        <v>-2.762430939226519</v>
+        <v>23.28767123287671</v>
       </c>
       <c r="L448" t="n">
         <v>846.9</v>
@@ -23481,7 +23503,7 @@
         <v>4550</v>
       </c>
       <c r="K449" t="n">
-        <v>20</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L449" t="n">
         <v>850.6</v>
@@ -23532,7 +23554,7 @@
         <v>4560</v>
       </c>
       <c r="K450" t="n">
-        <v>28.57142857142857</v>
+        <v>25.49019607843137</v>
       </c>
       <c r="L450" t="n">
         <v>853.2</v>
@@ -23583,7 +23605,7 @@
         <v>4570</v>
       </c>
       <c r="K451" t="n">
-        <v>10.82802547770701</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>854.8</v>
@@ -23634,7 +23656,7 @@
         <v>4588</v>
       </c>
       <c r="K452" t="n">
-        <v>32.0754716981132</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L452" t="n">
         <v>856.6</v>
@@ -23685,7 +23707,7 @@
         <v>4588</v>
       </c>
       <c r="K453" t="n">
-        <v>30.32258064516129</v>
+        <v>50</v>
       </c>
       <c r="L453" t="n">
         <v>858.4</v>
@@ -23736,7 +23758,7 @@
         <v>4608</v>
       </c>
       <c r="K454" t="n">
-        <v>36.84210526315789</v>
+        <v>62.26415094339622</v>
       </c>
       <c r="L454" t="n">
         <v>864.8</v>
@@ -23787,7 +23809,7 @@
         <v>4614</v>
       </c>
       <c r="K455" t="n">
-        <v>39.77272727272727</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L455" t="n">
         <v>872</v>
@@ -23838,7 +23860,7 @@
         <v>4616</v>
       </c>
       <c r="K456" t="n">
-        <v>42.04545454545455</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L456" t="n">
         <v>879.4</v>
@@ -23889,7 +23911,7 @@
         <v>4630</v>
       </c>
       <c r="K457" t="n">
-        <v>48.66310160427808</v>
+        <v>60</v>
       </c>
       <c r="L457" t="n">
         <v>885.4</v>
@@ -23940,7 +23962,7 @@
         <v>4639</v>
       </c>
       <c r="K458" t="n">
-        <v>51.02040816326531</v>
+        <v>55.0561797752809</v>
       </c>
       <c r="L458" t="n">
         <v>892.3</v>
@@ -23991,7 +24013,7 @@
         <v>4643</v>
       </c>
       <c r="K459" t="n">
-        <v>48.38709677419355</v>
+        <v>75.90361445783132</v>
       </c>
       <c r="L459" t="n">
         <v>897.6</v>
@@ -24042,7 +24064,7 @@
         <v>4644</v>
       </c>
       <c r="K460" t="n">
-        <v>47.31182795698925</v>
+        <v>97.29729729729731</v>
       </c>
       <c r="L460" t="n">
         <v>903.8</v>
@@ -24093,7 +24115,7 @@
         <v>4644</v>
       </c>
       <c r="K461" t="n">
-        <v>47.31182795698925</v>
+        <v>96.42857142857143</v>
       </c>
       <c r="L461" t="n">
         <v>911</v>
@@ -24144,7 +24166,7 @@
         <v>4645</v>
       </c>
       <c r="K462" t="n">
-        <v>42.69005847953216</v>
+        <v>96.49122807017544</v>
       </c>
       <c r="L462" t="n">
         <v>916.5</v>
@@ -24195,7 +24217,7 @@
         <v>4651</v>
       </c>
       <c r="K463" t="n">
-        <v>44.63276836158192</v>
+        <v>95.34883720930233</v>
       </c>
       <c r="L463" t="n">
         <v>922.6</v>
@@ -24246,7 +24268,7 @@
         <v>4651</v>
       </c>
       <c r="K464" t="n">
-        <v>69.5364238410596</v>
+        <v>94.5945945945946</v>
       </c>
       <c r="L464" t="n">
         <v>926.7</v>
@@ -24297,7 +24319,7 @@
         <v>4658</v>
       </c>
       <c r="K465" t="n">
-        <v>64.1025641025641</v>
+        <v>61.90476190476191</v>
       </c>
       <c r="L465" t="n">
         <v>929.5</v>
@@ -24348,7 +24370,7 @@
         <v>4677</v>
       </c>
       <c r="K466" t="n">
-        <v>46.28571428571428</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L466" t="n">
         <v>930.2</v>
@@ -24399,7 +24421,7 @@
         <v>4712</v>
       </c>
       <c r="K467" t="n">
-        <v>9.890109890109891</v>
+        <v>-69.86301369863014</v>
       </c>
       <c r="L467" t="n">
         <v>926</v>
@@ -24450,7 +24472,7 @@
         <v>4736</v>
       </c>
       <c r="K468" t="n">
-        <v>20.38834951456311</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L468" t="n">
         <v>923.3</v>
@@ -24501,7 +24523,7 @@
         <v>4737</v>
       </c>
       <c r="K469" t="n">
-        <v>12.29946524064171</v>
+        <v>-31.18279569892473</v>
       </c>
       <c r="L469" t="n">
         <v>920.3</v>
@@ -24552,7 +24574,7 @@
         <v>4752</v>
       </c>
       <c r="K470" t="n">
-        <v>25</v>
+        <v>-12.96296296296296</v>
       </c>
       <c r="L470" t="n">
         <v>918.9</v>
@@ -24603,7 +24625,7 @@
         <v>4759</v>
       </c>
       <c r="K471" t="n">
-        <v>34.39153439153439</v>
+        <v>-7.017543859649122</v>
       </c>
       <c r="L471" t="n">
         <v>918.2</v>
@@ -24654,7 +24676,7 @@
         <v>4759</v>
       </c>
       <c r="K472" t="n">
-        <v>27.48538011695906</v>
+        <v>-12.96296296296296</v>
       </c>
       <c r="L472" t="n">
         <v>917.4</v>
@@ -24705,7 +24727,7 @@
         <v>4772</v>
       </c>
       <c r="K473" t="n">
-        <v>18.47826086956522</v>
+        <v>-22.31404958677686</v>
       </c>
       <c r="L473" t="n">
         <v>914.7</v>
@@ -24756,7 +24778,7 @@
         <v>4772</v>
       </c>
       <c r="K474" t="n">
-        <v>8.536585365853659</v>
+        <v>-17.5438596491228</v>
       </c>
       <c r="L474" t="n">
         <v>912</v>
@@ -24807,7 +24829,7 @@
         <v>4772</v>
       </c>
       <c r="K475" t="n">
-        <v>5.063291139240507</v>
+        <v>-1.052631578947368</v>
       </c>
       <c r="L475" t="n">
         <v>910</v>
@@ -24858,7 +24880,7 @@
         <v>4802</v>
       </c>
       <c r="K476" t="n">
-        <v>-12.90322580645161</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="L476" t="n">
         <v>906.9</v>
@@ -24909,7 +24931,7 @@
         <v>4810</v>
       </c>
       <c r="K477" t="n">
-        <v>-16.66666666666666</v>
+        <v>-16.21621621621622</v>
       </c>
       <c r="L477" t="n">
         <v>908.1</v>
@@ -24960,7 +24982,7 @@
         <v>4820</v>
       </c>
       <c r="K478" t="n">
-        <v>-27.07182320441989</v>
+        <v>-27.71084337349398</v>
       </c>
       <c r="L478" t="n">
         <v>905.9</v>
@@ -25011,7 +25033,7 @@
         <v>4820</v>
       </c>
       <c r="K479" t="n">
-        <v>-29.94350282485876</v>
+        <v>-55.88235294117647</v>
       </c>
       <c r="L479" t="n">
         <v>903.6</v>
@@ -25062,7 +25084,7 @@
         <v>4840</v>
       </c>
       <c r="K480" t="n">
-        <v>-16.3265306122449</v>
+        <v>-30.8641975308642</v>
       </c>
       <c r="L480" t="n">
         <v>901.8</v>
@@ -25113,7 +25135,7 @@
         <v>4848</v>
       </c>
       <c r="K481" t="n">
-        <v>-11.76470588235294</v>
+        <v>-19.10112359550562</v>
       </c>
       <c r="L481" t="n">
         <v>900.1</v>
@@ -25164,7 +25186,7 @@
         <v>4859</v>
       </c>
       <c r="K482" t="n">
-        <v>-6.542056074766355</v>
+        <v>8.045977011494253</v>
       </c>
       <c r="L482" t="n">
         <v>899.5</v>
@@ -25215,7 +25237,7 @@
         <v>4888</v>
       </c>
       <c r="K483" t="n">
-        <v>-20.67510548523207</v>
+        <v>-18.96551724137931</v>
       </c>
       <c r="L483" t="n">
         <v>897.3</v>
@@ -25266,7 +25288,7 @@
         <v>4905</v>
       </c>
       <c r="K484" t="n">
-        <v>-12.59842519685039</v>
+        <v>-3.759398496240602</v>
       </c>
       <c r="L484" t="n">
         <v>896.8</v>
@@ -25317,7 +25339,7 @@
         <v>4920</v>
       </c>
       <c r="K485" t="n">
-        <v>-15.26717557251908</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="L485" t="n">
         <v>894.8</v>
@@ -25368,7 +25390,7 @@
         <v>4924</v>
       </c>
       <c r="K486" t="n">
-        <v>-10.12145748987854</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="L486" t="n">
         <v>895.4</v>
@@ -25419,7 +25441,7 @@
         <v>4928</v>
       </c>
       <c r="K487" t="n">
-        <v>6.481481481481481</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L487" t="n">
         <v>895.6</v>
@@ -25470,7 +25492,7 @@
         <v>4928</v>
       </c>
       <c r="K488" t="n">
-        <v>-5.208333333333334</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L488" t="n">
         <v>896.8</v>
@@ -25521,7 +25543,7 @@
         <v>4931</v>
       </c>
       <c r="K489" t="n">
-        <v>-7.216494845360824</v>
+        <v>-12.08791208791209</v>
       </c>
       <c r="L489" t="n">
         <v>897.7</v>
@@ -25572,7 +25594,7 @@
         <v>4931</v>
       </c>
       <c r="K490" t="n">
-        <v>-16.20111731843575</v>
+        <v>-22.89156626506024</v>
       </c>
       <c r="L490" t="n">
         <v>896.6</v>
@@ -25623,7 +25645,7 @@
         <v>4931</v>
       </c>
       <c r="K491" t="n">
-        <v>-20.93023255813954</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L491" t="n">
         <v>894.7</v>
@@ -25674,7 +25696,7 @@
         <v>4950</v>
       </c>
       <c r="K492" t="n">
-        <v>-28.79581151832461</v>
+        <v>-32.25806451612903</v>
       </c>
       <c r="L492" t="n">
         <v>889.8</v>
@@ -25725,7 +25747,7 @@
         <v>4950</v>
       </c>
       <c r="K493" t="n">
-        <v>-23.59550561797753</v>
+        <v>-82.22222222222221</v>
       </c>
       <c r="L493" t="n">
         <v>887.8</v>

--- a/BackTest/2019-10-09 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-09 BackTest PIVX.xlsx
@@ -1641,17 +1641,13 @@
         <v>881.2666666666667</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>840</v>
-      </c>
-      <c r="K36" t="n">
-        <v>840</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
@@ -1680,22 +1676,14 @@
         <v>880.0666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>855</v>
-      </c>
-      <c r="K37" t="n">
-        <v>840</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1723,22 +1711,14 @@
         <v>878.65</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>850</v>
-      </c>
-      <c r="K38" t="n">
-        <v>840</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1766,22 +1746,14 @@
         <v>877.7333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>878</v>
-      </c>
-      <c r="K39" t="n">
-        <v>840</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1809,22 +1781,14 @@
         <v>876.5333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>855</v>
-      </c>
-      <c r="K40" t="n">
-        <v>840</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1852,22 +1816,14 @@
         <v>875.2</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>856</v>
-      </c>
-      <c r="K41" t="n">
-        <v>840</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1895,22 +1851,14 @@
         <v>873.85</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>854</v>
-      </c>
-      <c r="K42" t="n">
-        <v>840</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +1886,14 @@
         <v>873</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>854</v>
-      </c>
-      <c r="K43" t="n">
-        <v>840</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1981,22 +1921,14 @@
         <v>873.9166666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>855</v>
-      </c>
-      <c r="K44" t="n">
-        <v>840</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2024,22 +1956,14 @@
         <v>874.7</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>866</v>
-      </c>
-      <c r="K45" t="n">
-        <v>840</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2067,22 +1991,14 @@
         <v>875.1333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>879</v>
-      </c>
-      <c r="K46" t="n">
-        <v>840</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2116,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>840</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2157,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>840</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2198,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>840</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2239,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>840</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2280,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>840</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2321,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>840</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2362,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>840</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2403,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>840</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2444,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>840</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2485,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>840</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2526,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>840</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2567,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>840</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2608,16 +2452,10 @@
         <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>840</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2646,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2681,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2716,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -3031,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -8456,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -8491,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
@@ -8526,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
@@ -8981,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
@@ -12023,184 +11861,160 @@
         <v>890.35</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>835</v>
+      </c>
+      <c r="C329" t="n">
         <v>834</v>
       </c>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
+      <c r="D329" t="n">
+        <v>835</v>
+      </c>
+      <c r="E329" t="n">
+        <v>834</v>
+      </c>
+      <c r="F329" t="n">
+        <v>49.875</v>
+      </c>
+      <c r="G329" t="n">
+        <v>888.6666666666666</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>838</v>
+      </c>
+      <c r="C330" t="n">
+        <v>833</v>
+      </c>
+      <c r="D330" t="n">
+        <v>840</v>
+      </c>
+      <c r="E330" t="n">
+        <v>833</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1715.0201</v>
+      </c>
+      <c r="G330" t="n">
+        <v>887.2</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0</v>
+      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
+      <c r="M330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>859</v>
+      </c>
+      <c r="C331" t="n">
+        <v>859</v>
+      </c>
+      <c r="D331" t="n">
+        <v>859</v>
+      </c>
+      <c r="E331" t="n">
+        <v>859</v>
+      </c>
+      <c r="F331" t="n">
+        <v>409.4571</v>
+      </c>
+      <c r="G331" t="n">
+        <v>886.1666666666666</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>859</v>
+      </c>
+      <c r="C332" t="n">
+        <v>849</v>
+      </c>
+      <c r="D332" t="n">
+        <v>859</v>
+      </c>
+      <c r="E332" t="n">
+        <v>849</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1</v>
+      </c>
+      <c r="G332" t="n">
+        <v>884.9666666666667</v>
+      </c>
+      <c r="H332" t="n">
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>859</v>
+      </c>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>835</v>
-      </c>
-      <c r="C329" t="n">
-        <v>834</v>
-      </c>
-      <c r="D329" t="n">
-        <v>835</v>
-      </c>
-      <c r="E329" t="n">
-        <v>834</v>
-      </c>
-      <c r="F329" t="n">
-        <v>49.875</v>
-      </c>
-      <c r="G329" t="n">
-        <v>888.6666666666666</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="n">
-        <v>835</v>
-      </c>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>838</v>
-      </c>
-      <c r="C330" t="n">
-        <v>833</v>
-      </c>
-      <c r="D330" t="n">
-        <v>840</v>
-      </c>
-      <c r="E330" t="n">
-        <v>833</v>
-      </c>
-      <c r="F330" t="n">
-        <v>1715.0201</v>
-      </c>
-      <c r="G330" t="n">
-        <v>887.2</v>
-      </c>
-      <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="n">
-        <v>838</v>
-      </c>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>859</v>
-      </c>
-      <c r="C331" t="n">
-        <v>859</v>
-      </c>
-      <c r="D331" t="n">
-        <v>859</v>
-      </c>
-      <c r="E331" t="n">
-        <v>859</v>
-      </c>
-      <c r="F331" t="n">
-        <v>409.4571</v>
-      </c>
-      <c r="G331" t="n">
-        <v>886.1666666666666</v>
-      </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
-      <c r="J331" t="n">
-        <v>859</v>
-      </c>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>859</v>
-      </c>
-      <c r="C332" t="n">
-        <v>849</v>
-      </c>
-      <c r="D332" t="n">
-        <v>859</v>
-      </c>
-      <c r="E332" t="n">
-        <v>849</v>
-      </c>
-      <c r="F332" t="n">
-        <v>1</v>
-      </c>
-      <c r="G332" t="n">
-        <v>884.9666666666667</v>
-      </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="n">
-        <v>859</v>
-      </c>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12228,14 +12042,12 @@
         <v>883.55</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>852</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -12269,14 +12081,12 @@
         <v>882.3833333333333</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>851</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
@@ -12310,14 +12120,12 @@
         <v>881.8333333333334</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>866</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
@@ -12351,14 +12159,12 @@
         <v>881.3833333333333</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>873</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
@@ -12392,14 +12198,12 @@
         <v>880.8333333333334</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>851</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
@@ -12433,14 +12237,12 @@
         <v>880.6</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>872</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
@@ -12474,14 +12276,12 @@
         <v>880.15</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>870</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
@@ -12515,14 +12315,12 @@
         <v>879.9166666666666</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>870</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
@@ -13027,16 +12825,18 @@
         <v>0</v>
       </c>
       <c r="I353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M353" t="inlineStr"/>
+      <c r="M353" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13068,7 +12868,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13103,7 +12907,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13138,7 +12946,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13173,7 +12985,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13208,7 +13024,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13243,7 +13063,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13278,7 +13102,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13313,7 +13141,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13348,7 +13180,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13383,7 +13219,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13418,7 +13258,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13453,7 +13297,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13488,7 +13336,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13375,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13558,7 +13414,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13593,7 +13453,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13628,7 +13492,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13663,7 +13531,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13698,7 +13570,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13733,7 +13609,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -13768,7 +13648,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -13803,7 +13687,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -13838,7 +13726,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -13873,7 +13765,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -13908,7 +13804,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -13943,7 +13843,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -13978,7 +13882,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14013,7 +13921,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14048,7 +13960,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14083,7 +13999,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14118,7 +14038,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14153,7 +14077,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14188,7 +14116,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14223,7 +14155,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14258,7 +14194,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14293,7 +14233,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14328,7 +14272,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14363,7 +14311,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14398,7 +14350,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14433,7 +14389,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14468,7 +14428,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14503,7 +14467,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14538,7 +14506,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14573,7 +14545,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14604,11 +14580,15 @@
         <v>0</v>
       </c>
       <c r="I398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14643,7 +14623,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14658,15 @@
         <v>0</v>
       </c>
       <c r="I400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14713,7 +14701,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14748,7 +14740,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14783,7 +14779,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14818,7 +14818,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14853,7 +14857,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14888,7 +14896,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14923,7 +14935,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14958,7 +14974,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14993,7 +15013,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15028,7 +15052,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15063,7 +15091,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15098,7 +15130,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15133,7 +15169,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15168,7 +15208,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15203,7 +15247,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15238,7 +15286,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15273,7 +15325,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15308,7 +15364,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15343,7 +15403,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15378,7 +15442,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15413,7 +15481,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15448,7 +15520,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15483,7 +15559,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15518,7 +15598,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15553,7 +15637,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15588,7 +15676,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15623,7 +15715,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15658,7 +15754,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15693,7 +15793,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15728,7 +15832,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15763,7 +15871,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15798,7 +15910,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15826,18 +15942,16 @@
         <v>886.2666666666667</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>844</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M433" t="n">
@@ -15867,14 +15981,12 @@
         <v>885.45</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>835</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
@@ -15908,14 +16020,12 @@
         <v>884.9</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>835</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
@@ -15949,14 +16059,12 @@
         <v>883.9333333333333</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>832</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
@@ -15990,14 +16098,12 @@
         <v>883.3</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>831</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
@@ -16031,14 +16137,12 @@
         <v>882.6666666666666</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>829</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
@@ -16072,14 +16176,12 @@
         <v>882.0166666666667</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>842</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
@@ -16119,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="n">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
@@ -16154,14 +16256,12 @@
         <v>881.2833333333333</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>844</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
@@ -16195,14 +16295,12 @@
         <v>881.1833333333333</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>859</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
@@ -16283,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="J444" t="n">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
@@ -16318,14 +16416,12 @@
         <v>879.4333333333333</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>832</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
@@ -16359,14 +16455,12 @@
         <v>878.45</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>832</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
@@ -16400,14 +16494,12 @@
         <v>877.9166666666666</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>857</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
@@ -16441,14 +16533,12 @@
         <v>877.25</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>860</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
@@ -16482,14 +16572,12 @@
         <v>876.4333333333333</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>879</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
@@ -16523,14 +16611,12 @@
         <v>875.45</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>870</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
@@ -16564,14 +16650,12 @@
         <v>874.1833333333333</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>870</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
@@ -16605,14 +16689,12 @@
         <v>873.2333333333333</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>878</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
@@ -16646,14 +16728,12 @@
         <v>872.3</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
       </c>
-      <c r="J453" t="n">
-        <v>878</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
@@ -16687,14 +16767,12 @@
         <v>871.7833333333333</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
       </c>
-      <c r="J454" t="n">
-        <v>878</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
@@ -17316,16 +17394,18 @@
         <v>0</v>
       </c>
       <c r="I470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M470" t="inlineStr"/>
+      <c r="M470" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -17353,11 +17433,15 @@
         <v>0</v>
       </c>
       <c r="I471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17388,11 +17472,15 @@
         <v>0</v>
       </c>
       <c r="I472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-09 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-09 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,11 +484,17 @@
         <v>76171.92244678001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>990</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -521,7 +527,11 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +597,15 @@
         <v>72174.36394678001</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +634,15 @@
         <v>72075.15194678001</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +671,15 @@
         <v>71894.47874678001</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +749,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +786,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +823,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +860,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +897,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +934,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +971,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1008,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1045,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1082,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1119,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1156,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1193,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1230,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1267,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1304,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1341,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1378,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1415,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1452,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1489,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1526,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1563,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,14 +1596,16 @@
         <v>67109.04204678</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1639,7 +1763,7 @@
         <v>66238.01125067</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1796,7 @@
         <v>66232.01125067</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1862,7 @@
         <v>66703.08715066999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1895,7 @@
         <v>63146.95915066999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1928,7 @@
         <v>58449.99645066999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1961,7 @@
         <v>58450.99645066999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1994,7 @@
         <v>58463.39645066999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2027,7 @@
         <v>58468.13755066999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -3091,14 +3215,10 @@
         <v>45354.84725066999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>852</v>
-      </c>
-      <c r="J82" t="n">
-        <v>852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
@@ -3128,19 +3248,11 @@
         <v>46515.84725066999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>844</v>
-      </c>
-      <c r="J83" t="n">
-        <v>852</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3172,14 +3284,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>852</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3241,14 +3347,10 @@
         <v>45911.09255066999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>844</v>
-      </c>
-      <c r="J86" t="n">
-        <v>844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3281,14 +3383,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>844</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3320,14 +3416,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>844</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3587,10 +3677,14 @@
         <v>46415.29195066999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>840</v>
+      </c>
+      <c r="J96" t="n">
+        <v>840</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3620,11 +3714,19 @@
         <v>46414.29195066999</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>855</v>
+      </c>
+      <c r="J97" t="n">
+        <v>840</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3653,11 +3755,19 @@
         <v>46514.29195066999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>850</v>
+      </c>
+      <c r="J98" t="n">
+        <v>840</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3686,10 +3796,14 @@
         <v>46388.90435066999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>880</v>
+      </c>
+      <c r="J99" t="n">
+        <v>880</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3719,11 +3833,19 @@
         <v>46388.90435066999</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>855</v>
+      </c>
+      <c r="J100" t="n">
+        <v>880</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3752,11 +3874,19 @@
         <v>46384.79535066999</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>855</v>
+      </c>
+      <c r="J101" t="n">
+        <v>880</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3785,11 +3915,19 @@
         <v>48835.43085066999</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>854</v>
+      </c>
+      <c r="J102" t="n">
+        <v>880</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3818,15 +3956,17 @@
         <v>48866.43085066999</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>855</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>880</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3857,12 +3997,14 @@
         <v>48868.43085066999</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>867</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>880</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3896,12 +4038,12 @@
         <v>48852.76065066999</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>889</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>880</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3935,10 +4077,14 @@
         <v>48737.68595066999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>876</v>
+      </c>
+      <c r="J106" t="n">
+        <v>880</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3972,12 +4118,14 @@
         <v>48991.06995066999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>869</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>880</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4011,12 +4159,14 @@
         <v>47513.72485066999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>880</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>880</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4050,12 +4200,14 @@
         <v>51185.05475066999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>874</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>880</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4089,12 +4241,14 @@
         <v>52178.37275066999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>890</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>880</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4128,12 +4282,14 @@
         <v>51607.08905066999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>891</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>880</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4167,12 +4323,14 @@
         <v>58706.40546177998</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>890</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>880</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,7 +4367,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>880</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,7 +4406,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>880</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,7 +4445,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>880</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4320,7 +4484,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>880</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4357,7 +4523,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>880</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,7 +4562,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>880</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,7 +4601,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>880</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,7 +4640,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>880</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4505,7 +4679,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>880</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,7 +4718,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>880</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4579,7 +4757,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>880</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,7 +4796,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>880</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4653,7 +4835,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>880</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4690,7 +4874,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>880</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4727,7 +4913,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>880</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4764,7 +4952,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>880</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4801,7 +4991,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>880</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4838,7 +5030,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>880</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4875,7 +5069,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>880</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4912,7 +5108,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>880</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4949,7 +5147,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>880</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4986,7 +5186,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>880</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5023,7 +5225,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>880</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5060,7 +5264,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>880</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5097,7 +5303,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>880</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,10 +5339,12 @@
         <v>96389.88777014999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>880</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5171,7 +5381,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>880</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,19 +5417,23 @@
         <v>96407.14247014999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>880</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>1.110909090909091</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.252463054187192</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5246,11 +5462,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5279,15 +5491,11 @@
         <v>100627.84047015</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5316,15 +5524,11 @@
         <v>100575.84047015</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5353,15 +5557,11 @@
         <v>100576.84047015</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5390,15 +5590,11 @@
         <v>99645.02437014999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5427,15 +5623,11 @@
         <v>99586.14257014998</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5464,15 +5656,11 @@
         <v>99589.14257014998</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5501,15 +5689,11 @@
         <v>99689.14257014998</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5538,15 +5722,11 @@
         <v>99042.97517014998</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5575,15 +5755,11 @@
         <v>99042.97517014998</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5612,15 +5788,11 @@
         <v>99938.97587014998</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5649,15 +5821,11 @@
         <v>99838.97587014998</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5686,15 +5854,11 @@
         <v>97763.52867014999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5723,15 +5887,11 @@
         <v>96766.52867014999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5760,15 +5920,11 @@
         <v>95236.12577014999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5797,15 +5953,11 @@
         <v>96155.55247014998</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5834,15 +5986,11 @@
         <v>91822.27457014998</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5875,11 +6023,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +6056,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5949,11 +6089,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +6122,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6023,11 +6155,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6060,11 +6188,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6093,15 +6217,11 @@
         <v>90563.71717014998</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6130,15 +6250,11 @@
         <v>88143.48987014998</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6167,15 +6283,11 @@
         <v>88141.48987014998</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6204,15 +6316,11 @@
         <v>88256.38637014998</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6241,15 +6349,11 @@
         <v>87348.46117014998</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6278,15 +6382,11 @@
         <v>87348.46117014998</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6315,15 +6415,11 @@
         <v>87191.47947014998</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6352,15 +6448,11 @@
         <v>87191.47947014998</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6389,15 +6481,11 @@
         <v>87192.47947014998</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6426,15 +6514,11 @@
         <v>87192.47947014998</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6463,15 +6547,11 @@
         <v>87192.47947014998</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6500,15 +6580,11 @@
         <v>86535.62597014998</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6537,15 +6613,11 @@
         <v>86535.62597014998</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6574,15 +6646,11 @@
         <v>86139.75767014998</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6611,15 +6679,11 @@
         <v>86194.30617014998</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6648,15 +6712,11 @@
         <v>81815.45127014998</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6685,15 +6745,11 @@
         <v>81729.64457014998</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6722,15 +6778,11 @@
         <v>85164.45297014997</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6759,15 +6811,11 @@
         <v>85164.45297014997</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6796,15 +6844,11 @@
         <v>82697.67877014997</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6833,15 +6877,11 @@
         <v>82697.67877014997</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6870,15 +6910,11 @@
         <v>82697.67877014997</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6907,15 +6943,11 @@
         <v>82693.67877014997</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6944,15 +6976,11 @@
         <v>82705.64447014997</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6981,15 +7009,11 @@
         <v>82703.64447014997</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7018,15 +7042,11 @@
         <v>82771.23117014997</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7055,15 +7075,11 @@
         <v>82449.43577014997</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7092,15 +7108,11 @@
         <v>82390.70117014997</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7129,15 +7141,11 @@
         <v>82390.70117014997</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7166,15 +7174,11 @@
         <v>81394.78867014997</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7203,15 +7207,11 @@
         <v>80524.60767014997</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7240,15 +7240,11 @@
         <v>78063.23937014997</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7277,15 +7273,11 @@
         <v>78091.23937014997</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7314,15 +7306,11 @@
         <v>78252.32837014997</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7351,15 +7339,11 @@
         <v>78171.32837014997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7388,15 +7372,11 @@
         <v>79054.69837014997</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7425,15 +7405,11 @@
         <v>78071.63827014997</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7462,15 +7438,11 @@
         <v>78076.76447014997</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7499,15 +7471,11 @@
         <v>78041.56447014997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7536,15 +7504,11 @@
         <v>78086.56447014997</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7573,15 +7537,11 @@
         <v>78036.56447014997</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7610,15 +7570,11 @@
         <v>74066.62717014996</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7647,15 +7603,11 @@
         <v>74518.80867014997</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7684,15 +7636,11 @@
         <v>74484.97377014997</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7721,15 +7669,11 @@
         <v>75304.44387014997</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7758,15 +7702,11 @@
         <v>74695.70407014998</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7795,15 +7735,11 @@
         <v>77258.99077014998</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7832,15 +7768,11 @@
         <v>78047.06467014998</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7873,11 +7805,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7910,11 +7838,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7947,11 +7871,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7984,11 +7904,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8021,11 +7937,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8058,11 +7970,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8095,11 +8003,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8132,11 +8036,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8169,11 +8069,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +8102,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8243,11 +8135,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8280,11 +8168,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8313,16 +8197,14 @@
         <v>79948.60007370997</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
       <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
@@ -8348,7 +8230,7 @@
         <v>79906.84713253997</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8414,7 +8296,7 @@
         <v>76649.10963253997</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8447,7 +8329,7 @@
         <v>76622.06503253998</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8711,7 +8593,7 @@
         <v>80310.23623253999</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8744,7 +8626,7 @@
         <v>83156.92993253999</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8777,7 +8659,7 @@
         <v>84968.24013254</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8810,7 +8692,7 @@
         <v>84968.24013254</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8909,7 +8791,7 @@
         <v>84823.88443254</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8942,7 +8824,7 @@
         <v>82903.17733254</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8975,7 +8857,7 @@
         <v>82314.09123254</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9008,7 +8890,7 @@
         <v>84070.71033253999</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9041,7 +8923,7 @@
         <v>84862.52413254</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9074,7 +8956,7 @@
         <v>84862.52413254</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9107,7 +8989,7 @@
         <v>84880.08913254</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9140,7 +9022,7 @@
         <v>84892.58913254</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9272,7 +9154,7 @@
         <v>84815.09823253998</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9470,7 +9352,7 @@
         <v>84421.95163253997</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9503,7 +9385,7 @@
         <v>84284.14097591997</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9536,7 +9418,7 @@
         <v>85678.68178698997</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9569,7 +9451,7 @@
         <v>88526.62302448996</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9602,7 +9484,7 @@
         <v>88523.65392448996</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9635,7 +9517,7 @@
         <v>88573.40192448997</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9668,7 +9550,7 @@
         <v>90418.73122448997</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9701,7 +9583,7 @@
         <v>90418.73122448997</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9734,7 +9616,7 @@
         <v>90418.73122448997</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9800,7 +9682,7 @@
         <v>92988.70222448997</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9833,7 +9715,7 @@
         <v>92988.70222448997</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9866,7 +9748,7 @@
         <v>92988.70222448997</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10064,7 +9946,7 @@
         <v>93042.60172448997</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10097,7 +9979,7 @@
         <v>93058.46312448996</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10130,7 +10012,7 @@
         <v>94608.88608212996</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10163,7 +10045,7 @@
         <v>94608.88608212996</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10196,7 +10078,7 @@
         <v>96374.52288212995</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10229,7 +10111,7 @@
         <v>96374.52288212995</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10262,7 +10144,7 @@
         <v>96374.52288212995</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10295,7 +10177,7 @@
         <v>96374.52288212995</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10328,7 +10210,7 @@
         <v>96809.88188212995</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10361,7 +10243,7 @@
         <v>96656.97568212995</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10394,7 +10276,7 @@
         <v>96770.14338212996</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10427,7 +10309,7 @@
         <v>96767.14338212996</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10460,7 +10342,7 @@
         <v>96767.14338212996</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10493,7 +10375,7 @@
         <v>96767.14338212996</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10526,7 +10408,7 @@
         <v>96780.73828212995</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10559,7 +10441,7 @@
         <v>96780.73828212995</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10592,7 +10474,7 @@
         <v>96780.73828212995</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10625,7 +10507,7 @@
         <v>96780.73828212995</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10658,7 +10540,7 @@
         <v>96793.64568212995</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10691,7 +10573,7 @@
         <v>96791.25828212994</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10724,7 +10606,7 @@
         <v>96791.25828212994</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10757,7 +10639,7 @@
         <v>96791.25828212994</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10790,7 +10672,7 @@
         <v>96790.25828212994</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10823,7 +10705,7 @@
         <v>96789.25828212994</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10856,7 +10738,7 @@
         <v>96790.25828212994</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10889,7 +10771,7 @@
         <v>96762.96988212994</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10922,7 +10804,7 @@
         <v>96300.51528212994</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10955,7 +10837,7 @@
         <v>96287.90978212994</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10988,7 +10870,7 @@
         <v>96267.90978212994</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11021,7 +10903,7 @@
         <v>96267.90978212994</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11054,7 +10936,7 @@
         <v>96096.08018212994</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11087,7 +10969,7 @@
         <v>96096.08018212994</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11120,7 +11002,7 @@
         <v>95541.83288212994</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11153,7 +11035,7 @@
         <v>95557.83288212994</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11186,7 +11068,7 @@
         <v>94427.93338212994</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11219,7 +11101,7 @@
         <v>94427.93338212994</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11252,7 +11134,7 @@
         <v>94429.93338212994</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11285,7 +11167,7 @@
         <v>94420.81398212994</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11318,7 +11200,7 @@
         <v>94470.94538212994</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11351,7 +11233,7 @@
         <v>93977.87398212994</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11384,7 +11266,7 @@
         <v>94258.30348212994</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11417,7 +11299,7 @@
         <v>94259.93878212993</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11450,7 +11332,7 @@
         <v>93246.63688212993</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11483,7 +11365,7 @@
         <v>93246.63688212993</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11516,7 +11398,7 @@
         <v>93241.63688212993</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11549,7 +11431,7 @@
         <v>93141.01438212993</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11582,7 +11464,7 @@
         <v>93140.01438212993</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11615,7 +11497,7 @@
         <v>89871.08088212993</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11648,7 +11530,7 @@
         <v>89944.64788212992</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11681,7 +11563,7 @@
         <v>88558.50278212993</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11714,7 +11596,7 @@
         <v>88558.50278212993</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11747,7 +11629,7 @@
         <v>88582.21918212993</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11780,7 +11662,7 @@
         <v>84185.43238212993</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11813,7 +11695,7 @@
         <v>84185.43238212993</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11846,7 +11728,7 @@
         <v>84185.43238212993</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11879,7 +11761,7 @@
         <v>84200.43238212993</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11912,7 +11794,7 @@
         <v>84199.43238212993</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11945,7 +11827,7 @@
         <v>78791.27638212993</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11978,7 +11860,7 @@
         <v>80531.49298212993</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12011,7 +11893,7 @@
         <v>78288.30278212993</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12044,7 +11926,7 @@
         <v>79016.77198212994</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12077,7 +11959,7 @@
         <v>79899.64198212994</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12110,7 +11992,7 @@
         <v>78490.93588212994</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12143,7 +12025,7 @@
         <v>79672.80458212995</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12176,7 +12058,7 @@
         <v>79671.80458212995</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12209,7 +12091,7 @@
         <v>80221.50068212995</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12242,7 +12124,7 @@
         <v>80220.50068212995</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12275,7 +12157,7 @@
         <v>80834.07378212994</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12308,7 +12190,7 @@
         <v>80833.07378212994</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12341,7 +12223,7 @@
         <v>80834.07378212994</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12374,7 +12256,7 @@
         <v>80840.66168212994</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12407,7 +12289,7 @@
         <v>82182.40318212994</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13661,14 +13543,10 @@
         <v>69700.74738212992</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>832</v>
-      </c>
-      <c r="J386" t="n">
-        <v>832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
@@ -13698,19 +13576,11 @@
         <v>69226.20988212992</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>846</v>
-      </c>
-      <c r="J387" t="n">
-        <v>832</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13739,19 +13609,11 @@
         <v>69276.08488212992</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>832</v>
-      </c>
-      <c r="J388" t="n">
-        <v>832</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13780,19 +13642,11 @@
         <v>67561.06478212992</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>834</v>
-      </c>
-      <c r="J389" t="n">
-        <v>832</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13821,19 +13675,11 @@
         <v>67970.52188212992</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>833</v>
-      </c>
-      <c r="J390" t="n">
-        <v>832</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13862,19 +13708,11 @@
         <v>67969.52188212992</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>859</v>
-      </c>
-      <c r="J391" t="n">
-        <v>832</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13903,19 +13741,11 @@
         <v>68204.77528212992</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>849</v>
-      </c>
-      <c r="J392" t="n">
-        <v>832</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13944,19 +13774,11 @@
         <v>68204.77528212992</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>851</v>
-      </c>
-      <c r="J393" t="n">
-        <v>832</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13985,19 +13807,11 @@
         <v>68385.58408212992</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>851</v>
-      </c>
-      <c r="J394" t="n">
-        <v>832</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14026,19 +13840,11 @@
         <v>70231.41548212992</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>867</v>
-      </c>
-      <c r="J395" t="n">
-        <v>832</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14067,19 +13873,11 @@
         <v>70230.41548212992</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>874</v>
-      </c>
-      <c r="J396" t="n">
-        <v>832</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14108,19 +13906,11 @@
         <v>70231.74828212992</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>851</v>
-      </c>
-      <c r="J397" t="n">
-        <v>832</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14149,19 +13939,11 @@
         <v>70221.78428212991</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>872</v>
-      </c>
-      <c r="J398" t="n">
-        <v>832</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14190,19 +13972,11 @@
         <v>70221.78428212991</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>870</v>
-      </c>
-      <c r="J399" t="n">
-        <v>832</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14234,14 +14008,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>832</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14270,19 +14038,11 @@
         <v>71227.77508212991</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>872</v>
-      </c>
-      <c r="J401" t="n">
-        <v>832</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14314,14 +14074,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>832</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14350,19 +14104,11 @@
         <v>73578.98168212992</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>878</v>
-      </c>
-      <c r="J403" t="n">
-        <v>832</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14394,14 +14140,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>832</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14433,14 +14173,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>832</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14472,14 +14206,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>832</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14511,14 +14239,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>832</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14550,14 +14272,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>832</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14589,14 +14305,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>832</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14628,14 +14338,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>832</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14667,14 +14371,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>832</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14706,14 +14404,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>832</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14745,14 +14437,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>832</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14781,19 +14467,11 @@
         <v>71364.73058212992</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>885</v>
-      </c>
-      <c r="J414" t="n">
-        <v>832</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14822,19 +14500,11 @@
         <v>71364.73058212992</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>872</v>
-      </c>
-      <c r="J415" t="n">
-        <v>832</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14863,19 +14533,11 @@
         <v>71364.73058212992</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>872</v>
-      </c>
-      <c r="J416" t="n">
-        <v>832</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14904,19 +14566,11 @@
         <v>71367.94538212992</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>872</v>
-      </c>
-      <c r="J417" t="n">
-        <v>832</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14945,19 +14599,11 @@
         <v>71366.94538212992</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>875</v>
-      </c>
-      <c r="J418" t="n">
-        <v>832</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14986,19 +14632,11 @@
         <v>69600.58478212992</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>858</v>
-      </c>
-      <c r="J419" t="n">
-        <v>832</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15027,19 +14665,11 @@
         <v>69600.58478212992</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>857</v>
-      </c>
-      <c r="J420" t="n">
-        <v>832</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15068,19 +14698,11 @@
         <v>69609.80478212993</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
-      </c>
-      <c r="I421" t="n">
-        <v>857</v>
-      </c>
-      <c r="J421" t="n">
-        <v>832</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15109,19 +14731,11 @@
         <v>69609.80478212993</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
-      </c>
-      <c r="I422" t="n">
-        <v>864</v>
-      </c>
-      <c r="J422" t="n">
-        <v>832</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15150,19 +14764,11 @@
         <v>70323.76628212993</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
-      </c>
-      <c r="I423" t="n">
-        <v>864</v>
-      </c>
-      <c r="J423" t="n">
-        <v>832</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15191,19 +14797,11 @@
         <v>71302.26858212992</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>884</v>
-      </c>
-      <c r="J424" t="n">
-        <v>832</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15235,14 +14833,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>832</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15274,14 +14866,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>832</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15310,19 +14896,11 @@
         <v>71318.93528212993</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
-      </c>
-      <c r="I427" t="n">
-        <v>899</v>
-      </c>
-      <c r="J427" t="n">
-        <v>832</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15354,14 +14932,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>832</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15390,19 +14962,11 @@
         <v>71197.26488212992</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
-      </c>
-      <c r="I429" t="n">
-        <v>895</v>
-      </c>
-      <c r="J429" t="n">
-        <v>832</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15431,19 +14995,11 @@
         <v>67948.60808212993</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
-      </c>
-      <c r="I430" t="n">
-        <v>895</v>
-      </c>
-      <c r="J430" t="n">
-        <v>832</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15472,19 +15028,11 @@
         <v>67953.03068212993</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>860</v>
-      </c>
-      <c r="J431" t="n">
-        <v>832</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15513,19 +15061,11 @@
         <v>67953.03068212993</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>884</v>
-      </c>
-      <c r="J432" t="n">
-        <v>832</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15554,19 +15094,11 @@
         <v>67953.03068212993</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>884</v>
-      </c>
-      <c r="J433" t="n">
-        <v>832</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15595,19 +15127,11 @@
         <v>67949.03068212993</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>884</v>
-      </c>
-      <c r="J434" t="n">
-        <v>832</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15636,19 +15160,11 @@
         <v>67952.98408212993</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>867</v>
-      </c>
-      <c r="J435" t="n">
-        <v>832</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15677,19 +15193,11 @@
         <v>67884.25098212993</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>890</v>
-      </c>
-      <c r="J436" t="n">
-        <v>832</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15718,19 +15226,11 @@
         <v>67884.25098212993</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
-      </c>
-      <c r="I437" t="n">
-        <v>867</v>
-      </c>
-      <c r="J437" t="n">
-        <v>832</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15759,19 +15259,11 @@
         <v>67887.47138212994</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>867</v>
-      </c>
-      <c r="J438" t="n">
-        <v>832</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15800,19 +15292,11 @@
         <v>67886.47138212994</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>882</v>
-      </c>
-      <c r="J439" t="n">
-        <v>832</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15841,19 +15325,11 @@
         <v>67886.47138212994</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>866</v>
-      </c>
-      <c r="J440" t="n">
-        <v>832</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15882,19 +15358,11 @@
         <v>67886.47138212994</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>866</v>
-      </c>
-      <c r="J441" t="n">
-        <v>832</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15923,19 +15391,11 @@
         <v>67889.37748212993</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>866</v>
-      </c>
-      <c r="J442" t="n">
-        <v>832</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15964,19 +15424,11 @@
         <v>67877.88308212993</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>883</v>
-      </c>
-      <c r="J443" t="n">
-        <v>832</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16005,19 +15457,11 @@
         <v>67989.87208212994</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>866</v>
-      </c>
-      <c r="J444" t="n">
-        <v>832</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16046,19 +15490,11 @@
         <v>68515.63268212993</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
-      </c>
-      <c r="I445" t="n">
-        <v>882</v>
-      </c>
-      <c r="J445" t="n">
-        <v>832</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16087,19 +15523,11 @@
         <v>68930.20178212992</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
-      </c>
-      <c r="I446" t="n">
-        <v>891</v>
-      </c>
-      <c r="J446" t="n">
-        <v>832</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16128,19 +15556,11 @@
         <v>70705.87878212992</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>892</v>
-      </c>
-      <c r="J447" t="n">
-        <v>832</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16172,14 +15592,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>832</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16211,14 +15625,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>832</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16250,14 +15658,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>832</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16286,23 +15688,15 @@
         <v>70644.09388212992</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>832</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
-        <v>1.118798076923077</v>
-      </c>
-      <c r="M451" t="n">
-        <v>1.302955665024631</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -16954,14 +16348,10 @@
         <v>68195.37518212992</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>892</v>
-      </c>
-      <c r="J471" t="n">
-        <v>892</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
@@ -16991,19 +16381,11 @@
         <v>68195.37518212992</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>895</v>
-      </c>
-      <c r="J472" t="n">
-        <v>892</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17035,14 +16417,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>892</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17071,19 +16447,11 @@
         <v>69304.38498212992</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>897</v>
-      </c>
-      <c r="J474" t="n">
-        <v>892</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17112,19 +16480,11 @@
         <v>69304.38498212992</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>894</v>
-      </c>
-      <c r="J475" t="n">
-        <v>892</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17153,19 +16513,11 @@
         <v>68129.62358212992</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>894</v>
-      </c>
-      <c r="J476" t="n">
-        <v>892</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17194,19 +16546,11 @@
         <v>67913.37828212992</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>893</v>
-      </c>
-      <c r="J477" t="n">
-        <v>892</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -17238,14 +16582,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>892</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -17277,14 +16615,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>892</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -17316,14 +16648,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>892</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17355,14 +16681,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>892</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17391,19 +16711,11 @@
         <v>66711.41688212994</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
-      </c>
-      <c r="I482" t="n">
-        <v>861</v>
-      </c>
-      <c r="J482" t="n">
-        <v>892</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17432,19 +16744,11 @@
         <v>66605.14188212994</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="n">
-        <v>874</v>
-      </c>
-      <c r="J483" t="n">
-        <v>892</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17473,19 +16777,11 @@
         <v>66784.36218212995</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
-      </c>
-      <c r="I484" t="n">
-        <v>867</v>
-      </c>
-      <c r="J484" t="n">
-        <v>892</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17514,19 +16810,11 @@
         <v>66216.76088212995</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
-      </c>
-      <c r="I485" t="n">
-        <v>884</v>
-      </c>
-      <c r="J485" t="n">
-        <v>892</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17555,19 +16843,11 @@
         <v>65901.69618212995</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="n">
-        <v>869</v>
-      </c>
-      <c r="J486" t="n">
-        <v>892</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17596,19 +16876,11 @@
         <v>64030.80538212995</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="n">
-        <v>867</v>
-      </c>
-      <c r="J487" t="n">
-        <v>892</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17637,19 +16909,11 @@
         <v>59715.04518212995</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
-      </c>
-      <c r="I488" t="n">
-        <v>865</v>
-      </c>
-      <c r="J488" t="n">
-        <v>892</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17678,19 +16942,11 @@
         <v>59607.10218212995</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>844</v>
-      </c>
-      <c r="J489" t="n">
-        <v>892</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17719,19 +16975,11 @@
         <v>60507.10218212995</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="n">
-        <v>822</v>
-      </c>
-      <c r="J490" t="n">
-        <v>892</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17760,19 +17008,11 @@
         <v>60502.80218212995</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
-      </c>
-      <c r="I491" t="n">
-        <v>843</v>
-      </c>
-      <c r="J491" t="n">
-        <v>892</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17801,19 +17041,11 @@
         <v>60673.06288212995</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
-      </c>
-      <c r="I492" t="n">
-        <v>827</v>
-      </c>
-      <c r="J492" t="n">
-        <v>892</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17842,19 +17074,11 @@
         <v>60674.20878212995</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>831</v>
-      </c>
-      <c r="J493" t="n">
-        <v>892</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17886,14 +17110,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>892</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17925,14 +17143,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>892</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17964,14 +17176,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>892</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18003,14 +17209,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>892</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18039,19 +17239,11 @@
         <v>58229.48628212995</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>829</v>
-      </c>
-      <c r="J498" t="n">
-        <v>892</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18080,19 +17272,11 @@
         <v>58599.33928212996</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>843</v>
-      </c>
-      <c r="J499" t="n">
-        <v>892</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18121,19 +17305,11 @@
         <v>58599.33928212996</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>844</v>
-      </c>
-      <c r="J500" t="n">
-        <v>892</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18162,19 +17338,11 @@
         <v>59566.24328212996</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>844</v>
-      </c>
-      <c r="J501" t="n">
-        <v>892</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18203,19 +17371,11 @@
         <v>59566.24328212996</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="n">
-        <v>860</v>
-      </c>
-      <c r="J502" t="n">
-        <v>892</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18244,19 +17404,11 @@
         <v>59486.87658212996</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="n">
-        <v>860</v>
-      </c>
-      <c r="J503" t="n">
-        <v>892</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18288,14 +17440,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>892</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18327,14 +17473,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>892</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18363,19 +17503,11 @@
         <v>62864.55698212996</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="n">
-        <v>832</v>
-      </c>
-      <c r="J506" t="n">
-        <v>892</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18404,19 +17536,11 @@
         <v>62864.55698212996</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="n">
-        <v>860</v>
-      </c>
-      <c r="J507" t="n">
-        <v>892</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18445,19 +17569,11 @@
         <v>62975.55698212996</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="n">
-        <v>860</v>
-      </c>
-      <c r="J508" t="n">
-        <v>892</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18486,19 +17602,11 @@
         <v>62974.55698212996</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="n">
-        <v>880</v>
-      </c>
-      <c r="J509" t="n">
-        <v>892</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18530,14 +17638,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>892</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18569,14 +17671,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>892</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18608,14 +17704,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>892</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18644,19 +17734,11 @@
         <v>67441.45668212995</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="n">
-        <v>878</v>
-      </c>
-      <c r="J513" t="n">
-        <v>892</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18685,19 +17767,11 @@
         <v>69400.19888212995</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
-      </c>
-      <c r="I514" t="n">
-        <v>898</v>
-      </c>
-      <c r="J514" t="n">
-        <v>892</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18726,19 +17800,11 @@
         <v>70772.87498212994</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="n">
-        <v>904</v>
-      </c>
-      <c r="J515" t="n">
-        <v>892</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18770,14 +17836,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>892</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18809,14 +17869,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>892</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18848,14 +17902,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>892</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18887,14 +17935,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>892</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18926,14 +17968,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>892</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18965,14 +18001,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>892</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19004,14 +18034,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>892</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19043,14 +18067,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>892</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19082,14 +18100,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>892</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19121,14 +18133,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>892</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19160,14 +18166,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>892</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19199,14 +18199,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>892</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19238,14 +18232,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>892</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19277,14 +18265,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>892</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19316,14 +18298,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>892</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19355,14 +18331,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>892</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19394,14 +18364,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>892</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19433,14 +18397,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>892</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19472,14 +18430,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>892</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19511,14 +18463,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>892</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19550,14 +18496,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>892</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19589,14 +18529,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>892</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19628,14 +18562,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>892</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19667,14 +18595,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>892</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19706,14 +18628,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>892</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19745,20 +18661,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>892</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
       <c r="M541" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-09 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-09 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>77485.55294678001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>76171.92244678001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -527,11 +521,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -564,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,15 +979,11 @@
         <v>73478.17554678001</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1152,15 +1078,11 @@
         <v>74505.29924678001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1189,15 +1111,11 @@
         <v>72809.11784678001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1226,15 +1144,11 @@
         <v>66062.45944678001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1263,15 +1177,11 @@
         <v>66579.81114678</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1300,15 +1210,11 @@
         <v>66579.81114678</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1563,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1596,16 +1474,14 @@
         <v>67109.04204678</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
       <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1763,7 +1639,7 @@
         <v>66238.01125067</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1796,7 +1672,7 @@
         <v>66232.01125067</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1862,7 +1738,7 @@
         <v>66703.08715066999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1895,7 +1771,7 @@
         <v>63146.95915066999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1928,7 +1804,7 @@
         <v>58449.99645066999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1961,7 +1837,7 @@
         <v>58450.99645066999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1994,7 +1870,7 @@
         <v>58463.39645066999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2027,7 +1903,7 @@
         <v>58468.13755066999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -3347,10 +3223,14 @@
         <v>45911.09255066999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>844</v>
+      </c>
+      <c r="J86" t="n">
+        <v>844</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
@@ -3380,11 +3260,19 @@
         <v>46452.60425067</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>851</v>
+      </c>
+      <c r="J87" t="n">
+        <v>844</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3416,8 +3304,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>844</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3446,10 +3340,14 @@
         <v>46453.20305067</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>880</v>
+      </c>
+      <c r="J89" t="n">
+        <v>880</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3479,11 +3377,19 @@
         <v>46455.20305067</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>852</v>
+      </c>
+      <c r="J90" t="n">
+        <v>880</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3512,11 +3418,19 @@
         <v>46454.20305067</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>880</v>
+      </c>
+      <c r="J91" t="n">
+        <v>880</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3644,10 +3558,14 @@
         <v>46028.13805066999</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>845</v>
+      </c>
+      <c r="J95" t="n">
+        <v>845</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
@@ -3683,9 +3601,13 @@
         <v>840</v>
       </c>
       <c r="J96" t="n">
-        <v>840</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>845</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3720,7 +3642,7 @@
         <v>855</v>
       </c>
       <c r="J97" t="n">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3761,13 +3683,9 @@
         <v>850</v>
       </c>
       <c r="J98" t="n">
-        <v>840</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3802,9 +3720,13 @@
         <v>880</v>
       </c>
       <c r="J99" t="n">
-        <v>880</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>850</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3839,11 +3761,11 @@
         <v>855</v>
       </c>
       <c r="J100" t="n">
-        <v>880</v>
+        <v>850</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3880,13 +3802,9 @@
         <v>855</v>
       </c>
       <c r="J101" t="n">
-        <v>880</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>855</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3921,11 +3839,11 @@
         <v>854</v>
       </c>
       <c r="J102" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3962,7 +3880,7 @@
         <v>855</v>
       </c>
       <c r="J103" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3997,13 +3915,11 @@
         <v>48868.43085066999</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>867</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4042,7 +3958,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4077,13 +3993,11 @@
         <v>48737.68595066999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4124,7 +4038,7 @@
         <v>869</v>
       </c>
       <c r="J107" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4165,7 +4079,7 @@
         <v>880</v>
       </c>
       <c r="J108" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4206,7 +4120,7 @@
         <v>874</v>
       </c>
       <c r="J109" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4241,13 +4155,11 @@
         <v>52178.37275066999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4282,13 +4194,11 @@
         <v>51607.08905066999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>891</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4323,13 +4233,11 @@
         <v>58706.40546177998</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4368,7 +4276,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4407,7 +4315,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4446,7 +4354,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4485,7 +4393,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4524,7 +4432,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4563,7 +4471,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4602,7 +4510,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4641,7 +4549,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4680,7 +4588,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4719,7 +4627,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4758,7 +4666,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4797,7 +4705,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4836,7 +4744,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4875,7 +4783,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4914,7 +4822,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4953,7 +4861,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4992,7 +4900,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5031,7 +4939,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5070,7 +4978,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5109,7 +5017,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5148,7 +5056,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5187,7 +5095,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5226,7 +5134,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5265,7 +5173,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5304,7 +5212,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5343,7 +5251,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5382,7 +5290,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5417,23 +5325,21 @@
         <v>96407.14247014999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.110909090909091</v>
-      </c>
-      <c r="M140" t="n">
-        <v>1.252463054187192</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5461,8 +5367,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>855</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5491,11 +5403,17 @@
         <v>100627.84047015</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>855</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5524,11 +5442,17 @@
         <v>100575.84047015</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>855</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5557,11 +5481,17 @@
         <v>100576.84047015</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>855</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5590,11 +5520,17 @@
         <v>99645.02437014999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>855</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5623,11 +5559,17 @@
         <v>99586.14257014998</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>855</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5656,11 +5598,17 @@
         <v>99589.14257014998</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>855</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5689,11 +5637,17 @@
         <v>99689.14257014998</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>855</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5722,11 +5676,17 @@
         <v>99042.97517014998</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>855</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5755,11 +5715,17 @@
         <v>99042.97517014998</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>855</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5788,11 +5754,17 @@
         <v>99938.97587014998</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>855</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5821,11 +5793,17 @@
         <v>99838.97587014998</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>855</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5854,11 +5832,17 @@
         <v>97763.52867014999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>855</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5887,11 +5871,17 @@
         <v>96766.52867014999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>855</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5920,11 +5910,17 @@
         <v>95236.12577014999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>855</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5953,11 +5949,17 @@
         <v>96155.55247014998</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>855</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5988,17 @@
         <v>91822.27457014998</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>855</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6030,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>855</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6055,8 +6069,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>855</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6088,8 +6108,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>855</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6121,8 +6147,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>855</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6154,8 +6186,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>855</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6187,8 +6225,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>855</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6217,11 +6261,17 @@
         <v>90563.71717014998</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>855</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6250,11 +6300,17 @@
         <v>88143.48987014998</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>855</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6283,11 +6339,17 @@
         <v>88141.48987014998</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>855</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6316,11 +6378,17 @@
         <v>88256.38637014998</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>855</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6349,11 +6417,17 @@
         <v>87348.46117014998</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>855</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6382,11 +6456,17 @@
         <v>87348.46117014998</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>855</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6415,11 +6495,17 @@
         <v>87191.47947014998</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>855</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6448,11 +6534,17 @@
         <v>87191.47947014998</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>855</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6481,11 +6573,17 @@
         <v>87192.47947014998</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>855</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6514,11 +6612,17 @@
         <v>87192.47947014998</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>855</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6547,11 +6651,17 @@
         <v>87192.47947014998</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>855</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6580,11 +6690,17 @@
         <v>86535.62597014998</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>855</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6613,11 +6729,17 @@
         <v>86535.62597014998</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>855</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6646,11 +6768,17 @@
         <v>86139.75767014998</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>855</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6679,11 +6807,17 @@
         <v>86194.30617014998</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>855</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6712,11 +6846,17 @@
         <v>81815.45127014998</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>855</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6745,11 +6885,17 @@
         <v>81729.64457014998</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>855</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6778,11 +6924,17 @@
         <v>85164.45297014997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>855</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6811,11 +6963,17 @@
         <v>85164.45297014997</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>855</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6844,11 +7002,17 @@
         <v>82697.67877014997</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>855</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6877,11 +7041,17 @@
         <v>82697.67877014997</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>855</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6910,11 +7080,17 @@
         <v>82697.67877014997</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>855</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6943,11 +7119,17 @@
         <v>82693.67877014997</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>855</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6976,11 +7158,17 @@
         <v>82705.64447014997</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>855</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7009,11 +7197,17 @@
         <v>82703.64447014997</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>855</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7042,11 +7236,17 @@
         <v>82771.23117014997</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>855</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7075,11 +7275,17 @@
         <v>82449.43577014997</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>855</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7108,11 +7314,17 @@
         <v>82390.70117014997</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>855</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7141,11 +7353,17 @@
         <v>82390.70117014997</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>855</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7174,11 +7392,17 @@
         <v>81394.78867014997</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>855</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7207,11 +7431,17 @@
         <v>80524.60767014997</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>855</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7240,11 +7470,17 @@
         <v>78063.23937014997</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>855</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7273,11 +7509,17 @@
         <v>78091.23937014997</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>855</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7306,11 +7548,17 @@
         <v>78252.32837014997</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>855</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7339,11 +7587,17 @@
         <v>78171.32837014997</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>855</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7372,11 +7626,17 @@
         <v>79054.69837014997</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>855</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7405,11 +7665,17 @@
         <v>78071.63827014997</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>855</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +7704,17 @@
         <v>78076.76447014997</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>855</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7471,11 +7743,17 @@
         <v>78041.56447014997</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>855</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7504,11 +7782,17 @@
         <v>78086.56447014997</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>855</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7537,11 +7821,17 @@
         <v>78036.56447014997</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>855</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7570,11 +7860,17 @@
         <v>74066.62717014996</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>855</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7603,11 +7899,17 @@
         <v>74518.80867014997</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>855</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7636,11 +7938,17 @@
         <v>74484.97377014997</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>855</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7669,11 +7977,17 @@
         <v>75304.44387014997</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>855</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7702,11 +8016,17 @@
         <v>74695.70407014998</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>855</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7735,11 +8055,17 @@
         <v>77258.99077014998</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>855</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7768,11 +8094,17 @@
         <v>78047.06467014998</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>855</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7804,8 +8136,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>855</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7837,8 +8175,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>855</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7870,8 +8214,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>855</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7903,8 +8253,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>855</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7936,8 +8292,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>855</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7969,8 +8331,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>855</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8002,8 +8370,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>855</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8035,8 +8409,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>855</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8068,8 +8448,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>855</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8101,8 +8487,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>855</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8134,8 +8526,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>855</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8167,8 +8565,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>855</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8200,8 +8604,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>855</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8233,8 +8643,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>855</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8266,8 +8682,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>855</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8296,11 +8718,17 @@
         <v>76649.10963253997</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>855</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8329,11 +8757,17 @@
         <v>76622.06503253998</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>855</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8365,8 +8799,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>855</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8398,8 +8838,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>855</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8431,8 +8877,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>855</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8464,8 +8916,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>855</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8497,8 +8955,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>855</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8530,8 +8994,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>855</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8563,8 +9033,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>855</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8596,8 +9072,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>855</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8626,11 +9108,17 @@
         <v>83156.92993253999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>855</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +9147,17 @@
         <v>84968.24013254</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>855</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8692,11 +9186,17 @@
         <v>84968.24013254</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>855</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8728,8 +9228,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>855</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8761,8 +9267,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>855</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8791,11 +9303,17 @@
         <v>84823.88443254</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>855</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8824,11 +9342,17 @@
         <v>82903.17733254</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>855</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8857,11 +9381,17 @@
         <v>82314.09123254</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>855</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8890,11 +9420,17 @@
         <v>84070.71033253999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>855</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8923,11 +9459,17 @@
         <v>84862.52413254</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>855</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8956,11 +9498,17 @@
         <v>84862.52413254</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>855</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8989,11 +9537,17 @@
         <v>84880.08913254</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>855</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +9576,17 @@
         <v>84892.58913254</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>855</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9058,8 +9618,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>855</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9091,8 +9657,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>855</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9124,8 +9696,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>855</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9154,11 +9732,17 @@
         <v>84815.09823253998</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>855</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9190,8 +9774,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>855</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9223,8 +9813,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>855</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9256,8 +9852,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>855</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9289,8 +9891,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>855</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9322,8 +9930,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>855</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9352,11 +9966,17 @@
         <v>84421.95163253997</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>855</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9385,11 +10005,17 @@
         <v>84284.14097591997</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>855</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9418,11 +10044,17 @@
         <v>85678.68178698997</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>855</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9451,11 +10083,17 @@
         <v>88526.62302448996</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>855</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9484,11 +10122,17 @@
         <v>88523.65392448996</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>855</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9517,11 +10161,17 @@
         <v>88573.40192448997</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>855</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9550,11 +10200,17 @@
         <v>90418.73122448997</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>855</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9583,11 +10239,17 @@
         <v>90418.73122448997</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>855</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9616,11 +10278,17 @@
         <v>90418.73122448997</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>855</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9652,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>855</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9682,11 +10356,17 @@
         <v>92988.70222448997</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>855</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9715,11 +10395,17 @@
         <v>92988.70222448997</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>855</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9748,11 +10434,17 @@
         <v>92988.70222448997</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>855</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9784,8 +10476,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>855</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9817,8 +10515,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>855</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9850,8 +10554,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>855</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9883,8 +10593,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>855</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9916,8 +10632,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>855</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9946,11 +10668,17 @@
         <v>93042.60172448997</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>855</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9979,11 +10707,17 @@
         <v>93058.46312448996</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>855</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10012,11 +10746,17 @@
         <v>94608.88608212996</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>855</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10045,11 +10785,17 @@
         <v>94608.88608212996</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>855</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10078,11 +10824,17 @@
         <v>96374.52288212995</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>855</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10111,11 +10863,17 @@
         <v>96374.52288212995</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>855</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10144,11 +10902,17 @@
         <v>96374.52288212995</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>855</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10177,11 +10941,17 @@
         <v>96374.52288212995</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>855</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10210,11 +10980,17 @@
         <v>96809.88188212995</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>855</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10243,11 +11019,17 @@
         <v>96656.97568212995</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>855</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10276,11 +11058,17 @@
         <v>96770.14338212996</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>855</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10309,11 +11097,17 @@
         <v>96767.14338212996</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>855</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10342,11 +11136,17 @@
         <v>96767.14338212996</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>855</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10375,11 +11175,17 @@
         <v>96767.14338212996</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>855</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10408,11 +11214,17 @@
         <v>96780.73828212995</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>855</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10441,11 +11253,17 @@
         <v>96780.73828212995</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>855</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10474,11 +11292,17 @@
         <v>96780.73828212995</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>855</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10507,11 +11331,17 @@
         <v>96780.73828212995</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>855</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10540,11 +11370,17 @@
         <v>96793.64568212995</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>855</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10573,11 +11409,17 @@
         <v>96791.25828212994</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>855</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10606,11 +11448,17 @@
         <v>96791.25828212994</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>855</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10639,11 +11487,17 @@
         <v>96791.25828212994</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>855</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10672,11 +11526,17 @@
         <v>96790.25828212994</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>855</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10705,11 +11565,17 @@
         <v>96789.25828212994</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>855</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10738,11 +11604,17 @@
         <v>96790.25828212994</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>855</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10771,11 +11643,17 @@
         <v>96762.96988212994</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>855</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10804,11 +11682,17 @@
         <v>96300.51528212994</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>855</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10837,11 +11721,17 @@
         <v>96287.90978212994</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>855</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10870,11 +11760,17 @@
         <v>96267.90978212994</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>855</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10903,11 +11799,17 @@
         <v>96267.90978212994</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>855</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10936,11 +11838,17 @@
         <v>96096.08018212994</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>855</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10969,11 +11877,17 @@
         <v>96096.08018212994</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>855</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11002,11 +11916,17 @@
         <v>95541.83288212994</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>855</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11035,11 +11955,17 @@
         <v>95557.83288212994</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>855</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11068,11 +11994,17 @@
         <v>94427.93338212994</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>855</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11101,11 +12033,17 @@
         <v>94427.93338212994</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>855</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11134,11 +12072,17 @@
         <v>94429.93338212994</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>855</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11167,11 +12111,17 @@
         <v>94420.81398212994</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>855</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11200,11 +12150,17 @@
         <v>94470.94538212994</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>855</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11233,11 +12189,17 @@
         <v>93977.87398212994</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>855</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11266,11 +12228,17 @@
         <v>94258.30348212994</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>855</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11299,11 +12267,17 @@
         <v>94259.93878212993</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>855</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11332,11 +12306,17 @@
         <v>93246.63688212993</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>855</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11365,11 +12345,17 @@
         <v>93246.63688212993</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>855</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11398,11 +12384,17 @@
         <v>93241.63688212993</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>855</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11431,11 +12423,17 @@
         <v>93141.01438212993</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>855</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11464,11 +12462,17 @@
         <v>93140.01438212993</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>855</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11497,11 +12501,17 @@
         <v>89871.08088212993</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>855</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11530,11 +12540,17 @@
         <v>89944.64788212992</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>855</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11563,11 +12579,17 @@
         <v>88558.50278212993</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>855</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11596,11 +12618,17 @@
         <v>88558.50278212993</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>855</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11629,11 +12657,17 @@
         <v>88582.21918212993</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>855</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11662,11 +12696,17 @@
         <v>84185.43238212993</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>855</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11695,11 +12735,17 @@
         <v>84185.43238212993</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>855</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11728,11 +12774,17 @@
         <v>84185.43238212993</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>855</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11761,11 +12813,17 @@
         <v>84200.43238212993</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>855</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11794,11 +12852,17 @@
         <v>84199.43238212993</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>855</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11827,11 +12891,17 @@
         <v>78791.27638212993</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>855</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11860,11 +12930,17 @@
         <v>80531.49298212993</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>855</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11893,11 +12969,17 @@
         <v>78288.30278212993</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>855</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11926,11 +13008,17 @@
         <v>79016.77198212994</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>855</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11959,11 +13047,17 @@
         <v>79899.64198212994</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>855</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11992,11 +13086,17 @@
         <v>78490.93588212994</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>855</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12025,11 +13125,17 @@
         <v>79672.80458212995</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>855</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12058,11 +13164,17 @@
         <v>79671.80458212995</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>855</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12091,11 +13203,17 @@
         <v>80221.50068212995</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>855</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12124,11 +13242,17 @@
         <v>80220.50068212995</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>855</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12157,11 +13281,17 @@
         <v>80834.07378212994</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>855</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12190,11 +13320,17 @@
         <v>80833.07378212994</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>855</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12223,11 +13359,17 @@
         <v>80834.07378212994</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>855</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12256,11 +13398,17 @@
         <v>80840.66168212994</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>855</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12289,11 +13437,17 @@
         <v>82182.40318212994</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>855</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12325,8 +13479,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>855</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12358,8 +13518,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>855</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12391,8 +13557,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>855</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12424,8 +13596,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>855</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12457,8 +13635,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>855</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12490,8 +13674,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>855</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12523,8 +13713,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>855</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12556,8 +13752,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>855</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12589,8 +13791,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>855</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12622,8 +13830,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>855</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12655,8 +13869,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>855</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12688,8 +13908,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>855</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12721,8 +13947,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>855</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12754,8 +13986,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>855</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12787,8 +14025,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>855</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12820,8 +14064,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>855</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12853,8 +14103,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>855</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12886,8 +14142,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>855</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12919,8 +14181,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>855</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12952,8 +14220,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>855</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12985,8 +14259,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>855</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13018,8 +14298,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>855</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13051,8 +14337,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>855</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13084,8 +14376,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>855</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13117,8 +14415,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>855</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13150,8 +14454,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>855</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13183,8 +14493,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>855</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13216,8 +14532,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>855</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13249,8 +14571,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>855</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13282,8 +14610,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>855</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13315,8 +14649,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>855</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13348,8 +14688,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>855</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13381,8 +14727,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>855</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13414,8 +14766,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>855</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13447,8 +14805,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>855</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13480,8 +14844,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>855</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13513,8 +14883,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>855</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13546,8 +14922,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>855</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13579,8 +14961,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>855</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13612,8 +15000,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>855</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13645,8 +15039,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>855</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13678,8 +15078,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>855</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13711,8 +15117,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>855</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13744,8 +15156,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>855</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13777,8 +15195,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>855</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13810,8 +15234,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>855</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13843,8 +15273,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>855</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13876,8 +15312,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>855</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13909,8 +15351,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>855</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13942,8 +15390,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>855</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13975,8 +15429,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>855</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14008,8 +15468,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>855</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14041,8 +15507,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>855</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14074,8 +15546,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>855</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14107,8 +15585,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>855</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14140,8 +15624,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>855</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14173,8 +15663,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>855</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14206,8 +15702,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>855</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14239,8 +15741,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>855</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14272,8 +15780,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>855</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14305,8 +15819,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>855</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14338,8 +15858,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>855</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14371,8 +15897,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>855</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14404,8 +15936,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>855</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14437,8 +15975,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>855</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14470,8 +16014,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>855</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14503,8 +16053,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>855</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14536,8 +16092,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>855</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14569,8 +16131,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>855</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14602,8 +16170,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>855</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14635,8 +16209,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>855</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14668,8 +16248,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>855</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14701,8 +16287,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>855</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14734,8 +16326,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>855</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14767,8 +16365,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>855</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14800,8 +16404,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>855</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14833,8 +16443,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>855</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14866,8 +16482,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>855</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14899,8 +16521,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>855</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14932,8 +16560,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>855</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14965,8 +16599,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>855</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14998,8 +16638,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>855</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15031,8 +16677,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>855</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15064,8 +16716,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>855</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15097,8 +16755,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>855</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15130,8 +16794,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>855</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15163,8 +16833,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>855</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15196,8 +16872,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>855</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15229,8 +16911,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>855</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15262,8 +16950,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>855</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15295,8 +16989,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>855</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15328,8 +17028,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>855</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15361,8 +17067,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>855</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15394,8 +17106,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>855</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15427,8 +17145,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>855</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15460,8 +17184,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>855</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15493,8 +17223,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>855</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15526,8 +17262,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>855</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15559,8 +17301,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>855</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15592,8 +17340,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>855</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15625,8 +17379,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>855</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15658,8 +17418,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>855</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15691,8 +17457,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>855</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15724,8 +17496,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>855</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15757,8 +17535,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>855</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15790,8 +17574,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>855</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15823,8 +17613,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>855</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15856,8 +17652,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>855</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15889,8 +17691,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>855</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15922,8 +17730,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>855</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15955,8 +17769,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>855</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15988,8 +17808,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>855</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16021,8 +17847,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>855</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16054,8 +17886,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>855</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16087,8 +17925,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>855</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16120,8 +17964,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>855</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16153,8 +18003,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>855</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16186,8 +18042,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>855</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16219,8 +18081,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>855</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16252,8 +18120,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>855</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16285,8 +18159,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>855</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16318,8 +18198,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>855</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16351,8 +18237,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>855</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16384,8 +18276,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>855</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16417,8 +18315,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>855</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16450,8 +18354,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>855</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16483,8 +18393,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>855</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16516,8 +18432,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>855</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16549,8 +18471,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>855</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16582,8 +18510,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>855</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16615,8 +18549,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>855</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16648,8 +18588,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>855</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16681,8 +18627,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>855</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16714,8 +18666,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>855</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16747,8 +18705,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>855</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16780,8 +18744,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>855</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16813,8 +18783,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>855</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16846,8 +18822,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>855</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16879,8 +18861,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>855</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16912,8 +18900,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>855</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16945,8 +18939,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>855</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16978,8 +18978,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>855</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17008,11 +19014,19 @@
         <v>60502.80218212995</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>843</v>
+      </c>
+      <c r="J491" t="n">
+        <v>855</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17041,11 +19055,19 @@
         <v>60673.06288212995</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>827</v>
+      </c>
+      <c r="J492" t="n">
+        <v>855</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17074,11 +19096,19 @@
         <v>60674.20878212995</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>831</v>
+      </c>
+      <c r="J493" t="n">
+        <v>855</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17107,11 +19137,19 @@
         <v>59704.21418212995</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>835</v>
+      </c>
+      <c r="J494" t="n">
+        <v>855</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17140,11 +19178,19 @@
         <v>58138.90028212995</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>834</v>
+      </c>
+      <c r="J495" t="n">
+        <v>855</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17173,11 +19219,19 @@
         <v>58041.66428212995</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>832</v>
+      </c>
+      <c r="J496" t="n">
+        <v>855</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17206,11 +19260,19 @@
         <v>58041.66428212995</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>829</v>
+      </c>
+      <c r="J497" t="n">
+        <v>855</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17239,11 +19301,19 @@
         <v>58229.48628212995</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>829</v>
+      </c>
+      <c r="J498" t="n">
+        <v>855</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17272,11 +19342,19 @@
         <v>58599.33928212996</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>843</v>
+      </c>
+      <c r="J499" t="n">
+        <v>855</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17305,11 +19383,19 @@
         <v>58599.33928212996</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>844</v>
+      </c>
+      <c r="J500" t="n">
+        <v>855</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17338,11 +19424,19 @@
         <v>59566.24328212996</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>844</v>
+      </c>
+      <c r="J501" t="n">
+        <v>855</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17371,11 +19465,19 @@
         <v>59566.24328212996</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>860</v>
+      </c>
+      <c r="J502" t="n">
+        <v>855</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17404,11 +19506,19 @@
         <v>59486.87658212996</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>860</v>
+      </c>
+      <c r="J503" t="n">
+        <v>855</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17437,11 +19547,19 @@
         <v>59415.83998212996</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>834</v>
+      </c>
+      <c r="J504" t="n">
+        <v>855</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17470,11 +19588,19 @@
         <v>59415.83998212996</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>832</v>
+      </c>
+      <c r="J505" t="n">
+        <v>855</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17503,11 +19629,19 @@
         <v>62864.55698212996</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>832</v>
+      </c>
+      <c r="J506" t="n">
+        <v>855</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17539,8 +19673,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>855</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17572,8 +19712,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>855</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17605,8 +19751,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>855</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17638,8 +19790,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>855</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17671,8 +19829,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>855</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17704,8 +19868,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>855</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17737,8 +19907,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>855</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17770,8 +19946,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>855</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17803,8 +19985,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>855</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17836,8 +20024,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>855</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17869,8 +20063,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>855</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17902,8 +20102,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>855</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17935,8 +20141,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>855</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17968,8 +20180,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>855</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18001,8 +20219,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>855</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18034,8 +20258,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>855</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18067,8 +20297,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>855</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18100,8 +20336,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>855</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18133,8 +20375,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>855</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18166,8 +20414,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>855</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18199,8 +20453,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>855</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18232,8 +20492,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>855</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18265,8 +20531,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>855</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18298,8 +20570,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>855</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18331,8 +20609,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>855</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18364,8 +20648,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>855</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18397,8 +20687,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>855</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18430,8 +20726,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>855</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18463,8 +20765,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>855</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18496,8 +20804,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>855</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18529,8 +20843,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>855</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18562,8 +20882,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>855</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18595,8 +20921,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>855</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18628,8 +20960,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>855</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18661,14 +20999,20 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>855</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
       <c r="M541" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-09 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-09 BackTest PIVX.xlsx
@@ -451,7 +451,7 @@
         <v>77485.55294678001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>76171.92244678001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>75834.51244678001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>72054.67694678</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>72174.36394678001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>72075.15194678001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>71894.47874678001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>71920.98004678001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>73478.17554678001</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>74505.29924678001</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>72809.11784678001</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>66062.45944678001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>66579.81114678</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>66579.81114678</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -2992,10 +2992,14 @@
         <v>46003.81015066999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>876</v>
+      </c>
+      <c r="J79" t="n">
+        <v>876</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3025,11 +3029,19 @@
         <v>45346.34725066999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>875</v>
+      </c>
+      <c r="J80" t="n">
+        <v>876</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3070,19 @@
         <v>45358.84725066999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>842</v>
+      </c>
+      <c r="J81" t="n">
+        <v>876</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3111,19 @@
         <v>45354.84725066999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>852</v>
+      </c>
+      <c r="J82" t="n">
+        <v>876</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3152,19 @@
         <v>46515.84725066999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>844</v>
+      </c>
+      <c r="J83" t="n">
+        <v>876</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3193,19 @@
         <v>46515.84725066999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>856</v>
+      </c>
+      <c r="J84" t="n">
+        <v>876</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3234,19 @@
         <v>45904.70325066999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>856</v>
+      </c>
+      <c r="J85" t="n">
+        <v>876</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3229,9 +3281,13 @@
         <v>844</v>
       </c>
       <c r="J86" t="n">
-        <v>844</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>876</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3266,11 +3322,11 @@
         <v>851</v>
       </c>
       <c r="J87" t="n">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L87" t="n">
@@ -3301,15 +3357,17 @@
         <v>46454.20305067</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>869</v>
+      </c>
       <c r="J88" t="n">
-        <v>844</v>
+        <v>876</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L88" t="n">
@@ -3346,9 +3404,13 @@
         <v>880</v>
       </c>
       <c r="J89" t="n">
-        <v>880</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+        <v>876</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3383,11 +3445,11 @@
         <v>852</v>
       </c>
       <c r="J90" t="n">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L90" t="n">
@@ -3424,11 +3486,11 @@
         <v>880</v>
       </c>
       <c r="J91" t="n">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3459,11 +3521,19 @@
         <v>46004.20305067</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>852</v>
+      </c>
+      <c r="J92" t="n">
+        <v>876</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3492,11 +3562,19 @@
         <v>46030.13805066999</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>845</v>
+      </c>
+      <c r="J93" t="n">
+        <v>876</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3528,8 +3606,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>876</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3564,9 +3648,13 @@
         <v>845</v>
       </c>
       <c r="J95" t="n">
-        <v>845</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>876</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3601,11 +3689,11 @@
         <v>840</v>
       </c>
       <c r="J96" t="n">
-        <v>845</v>
+        <v>876</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3642,11 +3730,11 @@
         <v>855</v>
       </c>
       <c r="J97" t="n">
-        <v>845</v>
+        <v>876</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3683,9 +3771,13 @@
         <v>850</v>
       </c>
       <c r="J98" t="n">
-        <v>850</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+        <v>876</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3720,11 +3812,11 @@
         <v>880</v>
       </c>
       <c r="J99" t="n">
-        <v>850</v>
+        <v>876</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3761,11 +3853,11 @@
         <v>855</v>
       </c>
       <c r="J100" t="n">
-        <v>850</v>
+        <v>876</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3802,9 +3894,13 @@
         <v>855</v>
       </c>
       <c r="J101" t="n">
-        <v>855</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>876</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3839,11 +3935,11 @@
         <v>854</v>
       </c>
       <c r="J102" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L102" t="n">
@@ -3880,7 +3976,7 @@
         <v>855</v>
       </c>
       <c r="J103" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3915,11 +4011,13 @@
         <v>48868.43085066999</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>867</v>
+      </c>
       <c r="J104" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -3954,11 +4052,13 @@
         <v>48852.76065066999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>889</v>
+      </c>
       <c r="J105" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -3993,11 +4093,13 @@
         <v>48737.68595066999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>876</v>
+      </c>
       <c r="J106" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4038,7 +4140,7 @@
         <v>869</v>
       </c>
       <c r="J107" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4079,7 +4181,7 @@
         <v>880</v>
       </c>
       <c r="J108" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4120,7 +4222,7 @@
         <v>874</v>
       </c>
       <c r="J109" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4155,11 +4257,13 @@
         <v>52178.37275066999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>890</v>
+      </c>
       <c r="J110" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4194,11 +4298,13 @@
         <v>51607.08905066999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>891</v>
+      </c>
       <c r="J111" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4233,11 +4339,13 @@
         <v>58706.40546177998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>890</v>
+      </c>
       <c r="J112" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4272,11 +4380,13 @@
         <v>60652.36695066999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>900</v>
+      </c>
       <c r="J113" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4311,11 +4421,13 @@
         <v>76031.83865066999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>920</v>
+      </c>
       <c r="J114" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4350,11 +4462,13 @@
         <v>81368.30784588998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>929</v>
+      </c>
       <c r="J115" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4393,7 +4507,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4432,7 +4546,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4471,7 +4585,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4510,7 +4624,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4549,7 +4663,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4588,7 +4702,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4627,7 +4741,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4666,7 +4780,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4705,7 +4819,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4744,7 +4858,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4783,7 +4897,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4822,7 +4936,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4861,7 +4975,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4896,21 +5010,23 @@
         <v>100949.49257015</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>855</v>
+        <v>876</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>1.202762557077626</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.252463054187192</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4935,17 +5051,11 @@
         <v>100899.49257015</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>855</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4974,17 +5084,11 @@
         <v>100848.59157015</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>855</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5013,17 +5117,11 @@
         <v>97889.22907014999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>855</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5052,17 +5150,11 @@
         <v>97889.22907014999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>855</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5091,17 +5183,11 @@
         <v>97881.80907014999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>855</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5133,14 +5219,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>855</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5169,17 +5249,11 @@
         <v>97877.80907014999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>855</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5208,17 +5282,11 @@
         <v>99515.91847014999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>855</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5247,17 +5315,11 @@
         <v>96389.88777014999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>855</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5286,17 +5348,11 @@
         <v>96405.14247014999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>855</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5328,14 +5384,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>855</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5364,17 +5414,11 @@
         <v>100578.32247015</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>855</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5403,17 +5447,11 @@
         <v>100627.84047015</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>855</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5442,17 +5480,11 @@
         <v>100575.84047015</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>855</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5481,17 +5513,11 @@
         <v>100576.84047015</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>855</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5520,17 +5546,11 @@
         <v>99645.02437014999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>855</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5559,17 +5579,11 @@
         <v>99586.14257014998</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>855</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5598,17 +5612,11 @@
         <v>99589.14257014998</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>855</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5637,17 +5645,11 @@
         <v>99689.14257014998</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>855</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5676,17 +5678,11 @@
         <v>99042.97517014998</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>855</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5715,17 +5711,11 @@
         <v>99042.97517014998</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>855</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5754,17 +5744,11 @@
         <v>99938.97587014998</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>855</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5793,17 +5777,11 @@
         <v>99838.97587014998</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>855</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5832,17 +5810,11 @@
         <v>97763.52867014999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>855</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5871,17 +5843,11 @@
         <v>96766.52867014999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>855</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5913,14 +5879,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>855</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5952,14 +5912,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>855</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5988,17 +5942,11 @@
         <v>91822.27457014998</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>855</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6027,17 +5975,11 @@
         <v>90603.82817014998</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>855</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6069,14 +6011,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>855</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6108,14 +6044,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>855</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6147,14 +6077,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>855</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6186,14 +6110,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>855</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6225,14 +6143,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>855</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6264,14 +6176,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>855</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6303,14 +6209,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>855</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6342,14 +6242,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>855</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6381,14 +6275,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>855</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6420,14 +6308,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>855</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6459,14 +6341,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>855</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6498,14 +6374,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>855</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6537,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>855</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6576,14 +6440,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>855</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6615,14 +6473,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>855</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6654,14 +6506,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>855</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6693,14 +6539,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>855</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6732,14 +6572,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>855</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6771,14 +6605,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>855</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6810,14 +6638,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>855</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6849,14 +6671,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>855</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6888,14 +6704,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>855</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6927,14 +6737,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>855</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6966,14 +6770,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>855</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7005,14 +6803,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>855</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7044,14 +6836,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>855</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7083,14 +6869,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>855</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7122,14 +6902,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>855</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7161,14 +6935,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>855</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7200,14 +6968,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>855</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7239,14 +7001,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>855</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7278,14 +7034,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>855</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7317,14 +7067,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>855</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7356,14 +7100,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>855</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7395,14 +7133,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>855</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7434,14 +7166,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>855</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7473,14 +7199,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>855</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7512,14 +7232,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>855</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7551,14 +7265,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>855</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7590,14 +7298,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>855</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7629,14 +7331,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>855</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7668,14 +7364,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>855</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7707,14 +7397,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>855</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7746,14 +7430,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>855</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7785,14 +7463,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>855</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7824,14 +7496,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>855</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7863,14 +7529,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>855</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7902,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>855</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7941,14 +7595,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>855</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7980,14 +7628,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>855</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8019,14 +7661,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>855</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8058,14 +7694,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>855</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8097,14 +7727,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>855</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8136,14 +7760,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>855</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8175,14 +7793,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>855</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8214,14 +7826,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>855</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8253,14 +7859,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>855</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8292,14 +7892,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>855</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8331,14 +7925,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>855</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8370,14 +7958,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>855</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8409,14 +7991,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>855</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8448,14 +8024,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>855</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8487,14 +8057,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>855</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8526,14 +8090,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>855</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8565,14 +8123,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>855</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8604,14 +8156,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>855</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8643,14 +8189,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>855</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8682,14 +8222,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>855</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8721,14 +8255,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>855</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8760,14 +8288,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>855</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8799,14 +8321,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>855</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8838,14 +8354,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>855</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8877,14 +8387,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>855</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8916,14 +8420,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>855</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8955,14 +8453,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>855</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8994,14 +8486,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>855</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9033,14 +8519,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>855</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9072,14 +8552,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>855</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9111,14 +8585,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>855</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9150,14 +8618,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>855</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9189,14 +8651,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>855</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9228,14 +8684,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>855</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9267,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>855</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9306,14 +8750,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>855</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9345,14 +8783,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>855</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9384,14 +8816,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>855</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9423,14 +8849,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>855</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9462,14 +8882,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>855</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9501,14 +8915,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>855</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9540,14 +8948,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>855</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9579,14 +8981,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>855</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9618,14 +9014,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>855</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9657,14 +9047,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>855</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9696,14 +9080,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>855</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9735,14 +9113,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>855</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9774,14 +9146,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>855</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9813,14 +9179,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>855</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9852,14 +9212,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>855</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9891,14 +9245,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>855</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9930,14 +9278,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>855</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9969,14 +9311,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>855</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10008,14 +9344,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>855</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10047,14 +9377,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>855</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10086,14 +9410,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>855</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10125,14 +9443,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>855</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10164,14 +9476,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>855</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10203,14 +9509,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>855</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10242,14 +9542,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>855</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10281,14 +9575,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>855</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10320,14 +9608,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>855</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10359,14 +9641,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>855</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10398,14 +9674,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>855</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10437,14 +9707,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>855</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10476,14 +9740,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>855</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10515,14 +9773,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>855</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10554,14 +9806,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>855</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10593,14 +9839,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>855</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10632,14 +9872,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>855</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10671,14 +9905,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>855</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10710,14 +9938,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>855</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10749,14 +9971,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>855</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10788,14 +10004,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>855</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10827,14 +10037,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>855</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10866,14 +10070,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>855</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10905,14 +10103,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>855</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10944,14 +10136,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>855</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10983,14 +10169,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>855</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11022,14 +10202,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>855</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11061,14 +10235,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>855</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11100,14 +10268,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>855</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11139,14 +10301,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>855</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11178,14 +10334,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>855</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11217,14 +10367,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>855</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11256,14 +10400,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>855</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11295,14 +10433,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>855</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11334,14 +10466,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>855</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11373,14 +10499,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>855</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11412,14 +10532,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>855</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11451,14 +10565,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>855</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11490,14 +10598,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>855</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11529,14 +10631,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>855</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11568,14 +10664,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>855</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11607,14 +10697,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>855</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11646,14 +10730,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>855</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11685,14 +10763,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>855</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11724,14 +10796,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>855</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11763,14 +10829,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>855</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11802,14 +10862,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>855</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11841,14 +10895,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>855</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11880,14 +10928,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>855</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11919,14 +10961,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>855</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11958,14 +10994,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>855</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11997,14 +11027,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>855</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12036,14 +11060,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>855</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12075,14 +11093,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>855</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12114,14 +11126,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>855</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12153,14 +11159,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>855</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12192,14 +11192,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>855</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12231,14 +11225,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>855</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12270,14 +11258,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>855</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12309,14 +11291,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>855</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12348,14 +11324,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>855</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12387,14 +11357,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>855</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12426,14 +11390,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>855</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12465,14 +11423,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>855</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12504,14 +11456,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>855</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12543,14 +11489,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>855</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12582,14 +11522,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>855</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12621,14 +11555,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>855</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12660,14 +11588,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>855</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12699,14 +11621,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>855</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12738,14 +11654,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>855</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12777,14 +11687,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>855</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12816,14 +11720,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>855</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12855,14 +11753,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>855</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12894,14 +11786,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>855</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12933,14 +11819,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>855</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12972,14 +11852,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>855</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13011,14 +11885,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>855</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13050,14 +11918,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>855</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13089,14 +11951,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>855</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13128,14 +11984,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>855</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13167,14 +12017,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>855</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13206,14 +12050,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>855</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13245,14 +12083,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>855</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13284,14 +12116,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>855</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13323,14 +12149,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>855</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13362,14 +12182,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>855</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13401,14 +12215,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>855</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13440,14 +12248,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>855</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13479,14 +12281,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>855</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13518,14 +12314,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>855</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13557,14 +12347,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>855</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13596,14 +12380,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>855</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13635,14 +12413,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>855</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13674,14 +12446,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>855</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13713,14 +12479,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>855</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13752,14 +12512,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>855</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13791,14 +12545,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>855</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13830,14 +12578,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>855</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13869,14 +12611,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>855</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13908,14 +12644,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>855</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13947,14 +12677,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>855</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13986,14 +12710,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>855</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14025,14 +12743,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>855</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14064,14 +12776,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>855</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14103,14 +12809,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>855</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14142,14 +12842,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>855</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14181,14 +12875,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>855</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14220,14 +12908,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>855</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14259,14 +12941,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>855</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14298,14 +12974,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>855</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14337,14 +13007,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>855</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14376,14 +13040,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>855</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14415,14 +13073,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>855</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14454,14 +13106,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>855</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14493,14 +13139,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>855</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14532,14 +13172,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>855</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14571,14 +13205,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>855</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14610,14 +13238,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>855</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14649,14 +13271,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>855</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14688,14 +13304,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>855</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14727,14 +13337,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>855</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14766,14 +13370,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>855</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14805,14 +13403,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>855</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14844,14 +13436,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>855</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14883,14 +13469,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>855</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14922,14 +13502,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>855</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14961,14 +13535,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>855</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15000,14 +13568,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>855</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15039,14 +13601,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>855</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15078,14 +13634,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>855</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15117,14 +13667,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>855</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15156,14 +13700,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>855</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15195,14 +13733,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>855</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15234,14 +13766,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>855</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15273,14 +13799,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>855</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15312,14 +13832,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>855</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15351,14 +13865,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>855</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15390,14 +13898,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>855</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15429,14 +13931,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>855</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15468,14 +13964,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>855</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15507,14 +13997,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>855</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15546,14 +14030,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>855</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15585,14 +14063,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>855</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15624,14 +14096,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>855</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15663,14 +14129,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>855</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15702,14 +14162,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>855</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15741,14 +14195,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>855</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15780,14 +14228,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>855</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15819,14 +14261,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>855</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15858,14 +14294,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>855</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15897,14 +14327,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>855</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15936,14 +14360,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>855</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15975,14 +14393,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>855</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16014,14 +14426,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>855</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16053,14 +14459,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>855</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16092,14 +14492,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>855</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16131,14 +14525,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>855</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16170,14 +14558,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>855</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16209,14 +14591,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>855</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16248,14 +14624,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>855</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16287,14 +14657,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>855</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16326,14 +14690,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>855</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16365,14 +14723,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>855</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16404,14 +14756,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>855</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16443,14 +14789,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>855</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16482,14 +14822,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>855</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16521,14 +14855,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>855</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16560,14 +14888,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>855</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16599,14 +14921,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>855</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16638,14 +14954,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>855</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16677,14 +14987,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>855</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16716,14 +15020,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>855</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16755,14 +15053,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>855</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16794,14 +15086,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>855</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16833,14 +15119,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>855</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16872,14 +15152,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>855</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16911,14 +15185,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>855</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16950,14 +15218,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>855</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16989,14 +15251,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>855</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17028,14 +15284,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>855</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17067,14 +15317,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>855</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17106,14 +15350,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>855</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17145,14 +15383,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>855</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17184,14 +15416,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>855</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17223,14 +15449,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>855</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17262,14 +15482,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>855</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17301,14 +15515,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>855</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17340,14 +15548,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>855</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17379,14 +15581,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>855</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17418,14 +15614,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>855</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17457,14 +15647,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>855</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17496,14 +15680,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>855</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17535,14 +15713,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>855</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17574,14 +15746,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>855</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17613,14 +15779,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>855</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17652,14 +15812,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>855</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17691,14 +15845,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>855</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17730,14 +15878,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>855</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17769,14 +15911,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>855</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17808,14 +15944,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>855</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17847,14 +15977,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>855</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17886,14 +16010,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>855</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17925,14 +16043,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>855</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17964,14 +16076,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>855</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18003,14 +16109,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>855</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18042,14 +16142,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>855</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18081,14 +16175,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>855</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18120,14 +16208,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>855</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18159,14 +16241,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>855</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18198,14 +16274,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>855</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18237,14 +16307,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>855</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18276,14 +16340,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>855</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18315,14 +16373,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>855</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18354,14 +16406,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>855</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18393,14 +16439,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>855</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18432,14 +16472,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>855</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18471,14 +16505,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>855</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18510,14 +16538,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>855</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18549,14 +16571,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>855</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18588,14 +16604,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>855</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18627,14 +16637,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>855</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18666,14 +16670,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>855</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18705,14 +16703,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>855</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18744,14 +16736,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>855</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18783,14 +16769,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>855</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18822,14 +16802,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>855</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18861,14 +16835,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>855</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18900,14 +16868,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>855</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18939,14 +16901,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>855</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18975,17 +16931,15 @@
         <v>60507.10218212995</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>822</v>
+      </c>
       <c r="J490" t="n">
-        <v>855</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19020,11 +16974,11 @@
         <v>843</v>
       </c>
       <c r="J491" t="n">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L491" t="n">
@@ -19061,11 +17015,11 @@
         <v>827</v>
       </c>
       <c r="J492" t="n">
-        <v>855</v>
+        <v>822</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L492" t="n">
@@ -19102,13 +17056,9 @@
         <v>831</v>
       </c>
       <c r="J493" t="n">
-        <v>855</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19143,11 +17093,11 @@
         <v>835</v>
       </c>
       <c r="J494" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L494" t="n">
@@ -19184,11 +17134,11 @@
         <v>834</v>
       </c>
       <c r="J495" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L495" t="n">
@@ -19225,11 +17175,11 @@
         <v>832</v>
       </c>
       <c r="J496" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L496" t="n">
@@ -19266,7 +17216,7 @@
         <v>829</v>
       </c>
       <c r="J497" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -19307,7 +17257,7 @@
         <v>829</v>
       </c>
       <c r="J498" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -19348,7 +17298,7 @@
         <v>843</v>
       </c>
       <c r="J499" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -19389,7 +17339,7 @@
         <v>844</v>
       </c>
       <c r="J500" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -19424,13 +17374,11 @@
         <v>59566.24328212996</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -19465,13 +17413,11 @@
         <v>59566.24328212996</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -19506,13 +17452,11 @@
         <v>59486.87658212996</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -19547,13 +17491,11 @@
         <v>59415.83998212996</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -19588,13 +17530,11 @@
         <v>59415.83998212996</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -19629,13 +17569,11 @@
         <v>62864.55698212996</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -19674,7 +17612,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -19713,7 +17651,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -19752,7 +17690,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -19787,11 +17725,13 @@
         <v>62489.80018212995</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>870</v>
+      </c>
       <c r="J510" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -19826,11 +17766,13 @@
         <v>62490.80018212995</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>860</v>
+      </c>
       <c r="J511" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19869,7 +17811,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19908,7 +17850,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19947,7 +17889,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19986,7 +17928,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -20025,7 +17967,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -20064,7 +18006,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -20103,7 +18045,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -20142,7 +18084,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -20181,7 +18123,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -20220,7 +18162,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -20259,7 +18201,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -20298,7 +18240,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -20337,7 +18279,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -20376,7 +18318,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -20415,7 +18357,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -20454,7 +18396,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -20493,7 +18435,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -20532,7 +18474,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -20571,7 +18513,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -20610,7 +18552,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -20649,7 +18591,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -20688,7 +18630,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -20727,7 +18669,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -20766,7 +18708,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -20805,7 +18747,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -20844,7 +18786,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -20883,7 +18825,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -20922,7 +18864,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20961,7 +18903,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -21000,7 +18942,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
